--- a/templates/250407管配件重量表.xlsx
+++ b/templates/250407管配件重量表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>直管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,12 @@
   </si>
   <si>
     <t>第290行</t>
+  </si>
+  <si>
+    <t>盲法兰</t>
+  </si>
+  <si>
+    <t>法兰</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH291"/>
+  <dimension ref="A1:AI291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,11 +1419,11 @@
     <col min="2" max="3" width="9" style="9"/>
     <col min="4" max="5" width="7.75" style="8" customWidth="1"/>
     <col min="6" max="7" width="7.75" style="1" customWidth="1"/>
-    <col min="8" max="33" width="7.75" style="8" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="8"/>
+    <col min="8" max="35" width="7.75" style="8" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1523,14 @@
       <c r="AG1" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1560,9 +1572,10 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1606,9 +1619,10 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="5"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1652,9 +1666,10 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1698,9 +1713,10 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="5"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -1766,9 +1782,12 @@
       </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1830,9 +1849,10 @@
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="5"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -1876,9 +1896,10 @@
       </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="5"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1922,9 +1943,10 @@
       </c>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="5"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1968,9 +1990,10 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="5"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -2052,9 +2075,14 @@
       </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="5"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH11" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -2106,9 +2134,10 @@
       <c r="AG12" s="7">
         <v>1.29</v>
       </c>
-      <c r="AH12" s="5"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -2158,9 +2187,10 @@
       <c r="AG13" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AH13" s="5"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2210,9 +2240,10 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -2298,8 +2329,14 @@
       </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH15" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -2349,8 +2386,10 @@
       <c r="AG16" s="7">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -2400,8 +2439,10 @@
       <c r="AG17" s="7">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -2451,8 +2492,10 @@
       <c r="AG18" s="7">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2502,8 +2545,10 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -2577,8 +2622,12 @@
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AI20" s="7"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -2628,8 +2677,10 @@
       <c r="AG21" s="7">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -2675,8 +2726,10 @@
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -2722,8 +2775,10 @@
       </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -2773,8 +2828,10 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -2860,8 +2917,14 @@
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH25" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -2905,8 +2968,10 @@
       </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -2956,8 +3021,10 @@
       <c r="AG27" s="7">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -3013,8 +3080,10 @@
       <c r="AG28" s="7">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -3064,8 +3133,10 @@
       <c r="AG29" s="7">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -3115,8 +3186,10 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3231,10 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -3203,8 +3278,10 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -3246,8 +3323,10 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -3333,8 +3412,14 @@
       </c>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH34" s="7">
+        <v>12</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>65</v>
       </c>
@@ -3384,8 +3469,10 @@
       <c r="AG35" s="7">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>66</v>
       </c>
@@ -3435,8 +3522,10 @@
       <c r="AG36" s="7">
         <v>7.21</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>67</v>
       </c>
@@ -3490,8 +3579,10 @@
       <c r="AG37" s="7">
         <v>6.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>68</v>
       </c>
@@ -3533,8 +3624,10 @@
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -3584,8 +3677,10 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>70</v>
       </c>
@@ -3627,8 +3722,10 @@
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3670,8 +3767,10 @@
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
@@ -3715,8 +3814,10 @@
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>73</v>
       </c>
@@ -3802,8 +3903,14 @@
       </c>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH43" s="7">
+        <v>18</v>
+      </c>
+      <c r="AI43" s="7">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>74</v>
       </c>
@@ -3855,8 +3962,10 @@
       <c r="AG44" s="7">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>75</v>
       </c>
@@ -3906,8 +4015,10 @@
       <c r="AG45" s="7">
         <v>15.53</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -3957,8 +4068,10 @@
       <c r="AG46" s="7">
         <v>14.21</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>77</v>
       </c>
@@ -4008,8 +4121,10 @@
       <c r="AG47" s="7">
         <v>10.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>78</v>
       </c>
@@ -4059,8 +4174,10 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>79</v>
       </c>
@@ -4146,8 +4263,14 @@
       </c>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH49" s="7">
+        <v>25</v>
+      </c>
+      <c r="AI49" s="7">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>80</v>
       </c>
@@ -4191,8 +4314,10 @@
       </c>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>81</v>
       </c>
@@ -4244,8 +4369,10 @@
       <c r="AG51" s="7">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>82</v>
       </c>
@@ -4295,8 +4422,10 @@
       <c r="AG52" s="7">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>83</v>
       </c>
@@ -4352,8 +4481,10 @@
       <c r="AG53" s="7">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>84</v>
       </c>
@@ -4403,8 +4534,10 @@
       <c r="AG54" s="7">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
@@ -4446,8 +4579,10 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>86</v>
       </c>
@@ -4491,8 +4626,10 @@
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
@@ -4542,8 +4679,10 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>88</v>
       </c>
@@ -4623,8 +4762,14 @@
       </c>
       <c r="AF58" s="7"/>
       <c r="AG58" s="7"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH58" s="7">
+        <v>34</v>
+      </c>
+      <c r="AI58" s="7">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>89</v>
       </c>
@@ -4668,8 +4813,10 @@
       </c>
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>90</v>
       </c>
@@ -4713,8 +4860,10 @@
       </c>
       <c r="AF60" s="7"/>
       <c r="AG60" s="7"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>91</v>
       </c>
@@ -4764,8 +4913,10 @@
       <c r="AG61" s="7">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>92</v>
       </c>
@@ -4815,8 +4966,10 @@
       <c r="AG62" s="7">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>93</v>
       </c>
@@ -4866,8 +5019,10 @@
       <c r="AG63" s="7">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
@@ -4917,8 +5072,10 @@
       <c r="AG64" s="7">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -4960,8 +5117,10 @@
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>96</v>
       </c>
@@ -5003,8 +5162,10 @@
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>97</v>
       </c>
@@ -5054,8 +5215,10 @@
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>98</v>
       </c>
@@ -5099,8 +5262,10 @@
       </c>
       <c r="AF68" s="7"/>
       <c r="AG68" s="7"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>99</v>
       </c>
@@ -5144,8 +5309,10 @@
       </c>
       <c r="AF69" s="7"/>
       <c r="AG69" s="7"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>100</v>
       </c>
@@ -5189,8 +5356,10 @@
       </c>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>101</v>
       </c>
@@ -5240,8 +5409,10 @@
       <c r="AG71" s="7">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>102</v>
       </c>
@@ -5285,8 +5456,10 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>103</v>
       </c>
@@ -5342,8 +5515,10 @@
       <c r="AG73" s="7">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>104</v>
       </c>
@@ -5393,8 +5568,10 @@
       <c r="AG74" s="7">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>105</v>
       </c>
@@ -5444,8 +5621,10 @@
       <c r="AG75" s="7">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>106</v>
       </c>
@@ -5531,8 +5710,14 @@
       </c>
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH76" s="7">
+        <v>46</v>
+      </c>
+      <c r="AI76" s="7">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>107</v>
       </c>
@@ -5582,8 +5767,10 @@
       <c r="AE77" s="7"/>
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>108</v>
       </c>
@@ -5655,8 +5842,14 @@
       </c>
       <c r="AF78" s="7"/>
       <c r="AG78" s="7"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH78" s="7">
+        <v>59</v>
+      </c>
+      <c r="AI78" s="7">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>109</v>
       </c>
@@ -5700,8 +5893,10 @@
       </c>
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>110</v>
       </c>
@@ -5745,8 +5940,10 @@
       </c>
       <c r="AF80" s="7"/>
       <c r="AG80" s="7"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>111</v>
       </c>
@@ -5790,8 +5987,10 @@
       </c>
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>112</v>
       </c>
@@ -5835,8 +6034,10 @@
       </c>
       <c r="AF82" s="7"/>
       <c r="AG82" s="7"/>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5886,8 +6087,10 @@
       <c r="AG83" s="7">
         <v>45.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>114</v>
       </c>
@@ -5943,8 +6146,10 @@
       <c r="AG84" s="7">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="7"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>115</v>
       </c>
@@ -5994,8 +6199,10 @@
       <c r="AG85" s="7">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>116</v>
       </c>
@@ -6045,8 +6252,10 @@
       <c r="AG86" s="7">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>117</v>
       </c>
@@ -6088,8 +6297,10 @@
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="7"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>118</v>
       </c>
@@ -6133,8 +6344,10 @@
       <c r="AE88" s="7"/>
       <c r="AF88" s="7"/>
       <c r="AG88" s="7"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>119</v>
       </c>
@@ -6184,8 +6397,10 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
       <c r="AG89" s="7"/>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>120</v>
       </c>
@@ -6263,8 +6478,14 @@
       </c>
       <c r="AF90" s="7"/>
       <c r="AG90" s="7"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH90" s="7">
+        <v>75</v>
+      </c>
+      <c r="AI90" s="7">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>121</v>
       </c>
@@ -6308,8 +6529,10 @@
       </c>
       <c r="AF91" s="7"/>
       <c r="AG91" s="7"/>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>122</v>
       </c>
@@ -6353,8 +6576,10 @@
       </c>
       <c r="AF92" s="7"/>
       <c r="AG92" s="7"/>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>123</v>
       </c>
@@ -6398,8 +6623,10 @@
       </c>
       <c r="AF93" s="7"/>
       <c r="AG93" s="7"/>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>124</v>
       </c>
@@ -6445,8 +6672,10 @@
       </c>
       <c r="AF94" s="7"/>
       <c r="AG94" s="7"/>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>125</v>
       </c>
@@ -6490,8 +6719,10 @@
       </c>
       <c r="AF95" s="7"/>
       <c r="AG95" s="7"/>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH95" s="7"/>
+      <c r="AI95" s="7"/>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>126</v>
       </c>
@@ -6541,8 +6772,10 @@
       <c r="AG96" s="7">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>127</v>
       </c>
@@ -6592,8 +6825,10 @@
       <c r="AG97" s="7">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>128</v>
       </c>
@@ -6643,8 +6878,10 @@
       <c r="AG98" s="7">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH98" s="7"/>
+      <c r="AI98" s="7"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>129</v>
       </c>
@@ -6694,8 +6931,10 @@
       <c r="AG99" s="7">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH99" s="7"/>
+      <c r="AI99" s="7"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>130</v>
       </c>
@@ -6737,8 +6976,10 @@
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
       <c r="AG100" s="7"/>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>131</v>
       </c>
@@ -6788,8 +7029,10 @@
       <c r="AE101" s="7"/>
       <c r="AF101" s="7"/>
       <c r="AG101" s="7"/>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH101" s="7"/>
+      <c r="AI101" s="7"/>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>132</v>
       </c>
@@ -6867,8 +7110,14 @@
       </c>
       <c r="AF102" s="7"/>
       <c r="AG102" s="7"/>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH102" s="7">
+        <v>157</v>
+      </c>
+      <c r="AI102" s="7">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>133</v>
       </c>
@@ -6912,8 +7161,10 @@
       </c>
       <c r="AF103" s="7"/>
       <c r="AG103" s="7"/>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>134</v>
       </c>
@@ -6957,8 +7208,10 @@
       </c>
       <c r="AF104" s="7"/>
       <c r="AG104" s="7"/>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH104" s="7"/>
+      <c r="AI104" s="7"/>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>135</v>
       </c>
@@ -7002,8 +7255,10 @@
       </c>
       <c r="AF105" s="7"/>
       <c r="AG105" s="7"/>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH105" s="7"/>
+      <c r="AI105" s="7"/>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>136</v>
       </c>
@@ -7047,8 +7302,10 @@
       </c>
       <c r="AF106" s="7"/>
       <c r="AG106" s="7"/>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH106" s="7"/>
+      <c r="AI106" s="7"/>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>137</v>
       </c>
@@ -7098,8 +7355,10 @@
       <c r="AG107" s="7">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH107" s="7"/>
+      <c r="AI107" s="7"/>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>138</v>
       </c>
@@ -7155,8 +7414,10 @@
       <c r="AG108" s="7">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH108" s="7"/>
+      <c r="AI108" s="7"/>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>139</v>
       </c>
@@ -7206,8 +7467,10 @@
       <c r="AG109" s="7">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH109" s="7"/>
+      <c r="AI109" s="7"/>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>140</v>
       </c>
@@ -7257,8 +7520,10 @@
       <c r="AG110" s="7">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH110" s="7"/>
+      <c r="AI110" s="7"/>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>141</v>
       </c>
@@ -7300,8 +7565,10 @@
       <c r="AE111" s="7"/>
       <c r="AF111" s="7"/>
       <c r="AG111" s="7"/>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH111" s="7"/>
+      <c r="AI111" s="7"/>
+    </row>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>142</v>
       </c>
@@ -7343,8 +7610,10 @@
       <c r="AE112" s="7"/>
       <c r="AF112" s="7"/>
       <c r="AG112" s="7"/>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH112" s="7"/>
+      <c r="AI112" s="7"/>
+    </row>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>143</v>
       </c>
@@ -7388,8 +7657,10 @@
       <c r="AE113" s="7"/>
       <c r="AF113" s="7"/>
       <c r="AG113" s="7"/>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH113" s="7"/>
+      <c r="AI113" s="7"/>
+    </row>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>144</v>
       </c>
@@ -7439,8 +7710,10 @@
       <c r="AE114" s="7"/>
       <c r="AF114" s="7"/>
       <c r="AG114" s="7"/>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH114" s="7"/>
+      <c r="AI114" s="7"/>
+    </row>
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>145</v>
       </c>
@@ -7482,8 +7755,10 @@
       <c r="AE115" s="7"/>
       <c r="AF115" s="7"/>
       <c r="AG115" s="7"/>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH115" s="7"/>
+      <c r="AI115" s="7"/>
+    </row>
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>146</v>
       </c>
@@ -7561,8 +7836,14 @@
       </c>
       <c r="AF116" s="7"/>
       <c r="AG116" s="7"/>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH116" s="7">
+        <v>212</v>
+      </c>
+      <c r="AI116" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>147</v>
       </c>
@@ -7606,8 +7887,10 @@
       </c>
       <c r="AF117" s="7"/>
       <c r="AG117" s="7"/>
-    </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH117" s="7"/>
+      <c r="AI117" s="7"/>
+    </row>
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>148</v>
       </c>
@@ -7651,8 +7934,10 @@
       </c>
       <c r="AF118" s="7"/>
       <c r="AG118" s="7"/>
-    </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH118" s="7"/>
+      <c r="AI118" s="7"/>
+    </row>
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>149</v>
       </c>
@@ -7696,8 +7981,10 @@
       </c>
       <c r="AF119" s="7"/>
       <c r="AG119" s="7"/>
-    </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH119" s="7"/>
+      <c r="AI119" s="7"/>
+    </row>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>150</v>
       </c>
@@ -7741,8 +8028,10 @@
       </c>
       <c r="AF120" s="7"/>
       <c r="AG120" s="7"/>
-    </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH120" s="7"/>
+      <c r="AI120" s="7"/>
+    </row>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>151</v>
       </c>
@@ -7786,8 +8075,10 @@
       </c>
       <c r="AF121" s="7"/>
       <c r="AG121" s="7"/>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH121" s="7"/>
+      <c r="AI121" s="7"/>
+    </row>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>152</v>
       </c>
@@ -7837,8 +8128,10 @@
       <c r="AG122" s="7">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH122" s="7"/>
+      <c r="AI122" s="7"/>
+    </row>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>153</v>
       </c>
@@ -7888,8 +8181,10 @@
       <c r="AG123" s="7">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH123" s="7"/>
+      <c r="AI123" s="7"/>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>154</v>
       </c>
@@ -7945,8 +8240,10 @@
       <c r="AG124" s="7">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH124" s="7"/>
+      <c r="AI124" s="7"/>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>155</v>
       </c>
@@ -7996,8 +8293,10 @@
       <c r="AG125" s="7">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH125" s="7"/>
+      <c r="AI125" s="7"/>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>156</v>
       </c>
@@ -8047,8 +8346,10 @@
       <c r="AE126" s="7"/>
       <c r="AF126" s="7"/>
       <c r="AG126" s="7"/>
-    </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH126" s="7"/>
+      <c r="AI126" s="7"/>
+    </row>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>157</v>
       </c>
@@ -8090,8 +8391,10 @@
       <c r="AE127" s="7"/>
       <c r="AF127" s="7"/>
       <c r="AG127" s="7"/>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH127" s="7"/>
+      <c r="AI127" s="7"/>
+    </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>158</v>
       </c>
@@ -8133,8 +8436,10 @@
       <c r="AE128" s="7"/>
       <c r="AF128" s="7"/>
       <c r="AG128" s="7"/>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH128" s="7"/>
+      <c r="AI128" s="7"/>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>159</v>
       </c>
@@ -8178,8 +8483,10 @@
       <c r="AE129" s="7"/>
       <c r="AF129" s="7"/>
       <c r="AG129" s="7"/>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH129" s="7"/>
+      <c r="AI129" s="7"/>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>160</v>
       </c>
@@ -8257,8 +8564,14 @@
       </c>
       <c r="AF130" s="7"/>
       <c r="AG130" s="7"/>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH130" s="7">
+        <v>302</v>
+      </c>
+      <c r="AI130" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>161</v>
       </c>
@@ -8302,8 +8615,10 @@
       </c>
       <c r="AF131" s="7"/>
       <c r="AG131" s="7"/>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH131" s="7"/>
+      <c r="AI131" s="7"/>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>162</v>
       </c>
@@ -8347,8 +8662,10 @@
       </c>
       <c r="AF132" s="7"/>
       <c r="AG132" s="7"/>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH132" s="7"/>
+      <c r="AI132" s="7"/>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>163</v>
       </c>
@@ -8392,8 +8709,10 @@
       </c>
       <c r="AF133" s="7"/>
       <c r="AG133" s="7"/>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH133" s="7"/>
+      <c r="AI133" s="7"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>164</v>
       </c>
@@ -8439,8 +8758,10 @@
       </c>
       <c r="AF134" s="7"/>
       <c r="AG134" s="7"/>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH134" s="7"/>
+      <c r="AI134" s="7"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>165</v>
       </c>
@@ -8484,8 +8805,10 @@
       </c>
       <c r="AF135" s="7"/>
       <c r="AG135" s="7"/>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH135" s="7"/>
+      <c r="AI135" s="7"/>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>166</v>
       </c>
@@ -8535,8 +8858,10 @@
       <c r="AG136" s="7">
         <v>126.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH136" s="7"/>
+      <c r="AI136" s="7"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>167</v>
       </c>
@@ -8586,8 +8911,10 @@
       <c r="AG137" s="7">
         <v>114.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH137" s="7"/>
+      <c r="AI137" s="7"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>168</v>
       </c>
@@ -8641,8 +8968,10 @@
       <c r="AG138" s="7">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH138" s="7"/>
+      <c r="AI138" s="7"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>169</v>
       </c>
@@ -8692,8 +9021,10 @@
       <c r="AG139" s="7">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH139" s="7"/>
+      <c r="AI139" s="7"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>170</v>
       </c>
@@ -8743,8 +9074,10 @@
       <c r="AE140" s="7"/>
       <c r="AF140" s="7"/>
       <c r="AG140" s="7"/>
-    </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH140" s="7"/>
+      <c r="AI140" s="7"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>171</v>
       </c>
@@ -8786,8 +9119,10 @@
       <c r="AE141" s="7"/>
       <c r="AF141" s="7"/>
       <c r="AG141" s="7"/>
-    </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH141" s="7"/>
+      <c r="AI141" s="7"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>172</v>
       </c>
@@ -8831,8 +9166,10 @@
       <c r="AE142" s="7"/>
       <c r="AF142" s="7"/>
       <c r="AG142" s="7"/>
-    </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH142" s="7"/>
+      <c r="AI142" s="7"/>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>173</v>
       </c>
@@ -8910,8 +9247,14 @@
       </c>
       <c r="AF143" s="7"/>
       <c r="AG143" s="7"/>
-    </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH143" s="7">
+        <v>394</v>
+      </c>
+      <c r="AI143" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>174</v>
       </c>
@@ -8955,8 +9298,10 @@
       </c>
       <c r="AF144" s="7"/>
       <c r="AG144" s="7"/>
-    </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH144" s="7"/>
+      <c r="AI144" s="7"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>175</v>
       </c>
@@ -9000,8 +9345,10 @@
       </c>
       <c r="AF145" s="7"/>
       <c r="AG145" s="7"/>
-    </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH145" s="7"/>
+      <c r="AI145" s="7"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>176</v>
       </c>
@@ -9045,8 +9392,10 @@
       </c>
       <c r="AF146" s="7"/>
       <c r="AG146" s="7"/>
-    </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH146" s="7"/>
+      <c r="AI146" s="7"/>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>177</v>
       </c>
@@ -9090,8 +9439,10 @@
       </c>
       <c r="AF147" s="7"/>
       <c r="AG147" s="7"/>
-    </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH147" s="7"/>
+      <c r="AI147" s="7"/>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>178</v>
       </c>
@@ -9137,8 +9488,10 @@
       </c>
       <c r="AF148" s="7"/>
       <c r="AG148" s="7"/>
-    </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH148" s="7"/>
+      <c r="AI148" s="7"/>
+    </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>179</v>
       </c>
@@ -9182,8 +9535,10 @@
       </c>
       <c r="AF149" s="7"/>
       <c r="AG149" s="7"/>
-    </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH149" s="7"/>
+      <c r="AI149" s="7"/>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>180</v>
       </c>
@@ -9233,8 +9588,10 @@
       <c r="AG150" s="7">
         <v>158.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH150" s="7"/>
+      <c r="AI150" s="7"/>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>181</v>
       </c>
@@ -9286,8 +9643,10 @@
       <c r="AG151" s="7">
         <v>130.30000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH151" s="7"/>
+      <c r="AI151" s="7"/>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>182</v>
       </c>
@@ -9341,8 +9700,10 @@
       <c r="AG152" s="7">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH152" s="7"/>
+      <c r="AI152" s="7"/>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>183</v>
       </c>
@@ -9392,8 +9753,10 @@
       <c r="AG153" s="7">
         <v>61.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH153" s="7"/>
+      <c r="AI153" s="7"/>
+    </row>
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>184</v>
       </c>
@@ -9443,8 +9806,10 @@
       <c r="AE154" s="7"/>
       <c r="AF154" s="7"/>
       <c r="AG154" s="7"/>
-    </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH154" s="7"/>
+      <c r="AI154" s="7"/>
+    </row>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>185</v>
       </c>
@@ -9486,8 +9851,10 @@
       <c r="AE155" s="7"/>
       <c r="AF155" s="7"/>
       <c r="AG155" s="7"/>
-    </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH155" s="7"/>
+      <c r="AI155" s="7"/>
+    </row>
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>186</v>
       </c>
@@ -9531,8 +9898,10 @@
       <c r="AE156" s="7"/>
       <c r="AF156" s="7"/>
       <c r="AG156" s="7"/>
-    </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH156" s="7"/>
+      <c r="AI156" s="7"/>
+    </row>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>187</v>
       </c>
@@ -9610,8 +9979,14 @@
       </c>
       <c r="AF157" s="7"/>
       <c r="AG157" s="7"/>
-    </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH157" s="7">
+        <v>505</v>
+      </c>
+      <c r="AI157" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>188</v>
       </c>
@@ -9655,8 +10030,10 @@
       </c>
       <c r="AF158" s="7"/>
       <c r="AG158" s="7"/>
-    </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH158" s="7"/>
+      <c r="AI158" s="7"/>
+    </row>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>189</v>
       </c>
@@ -9700,8 +10077,10 @@
       </c>
       <c r="AF159" s="7"/>
       <c r="AG159" s="7"/>
-    </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH159" s="7"/>
+      <c r="AI159" s="7"/>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>190</v>
       </c>
@@ -9745,8 +10124,10 @@
       </c>
       <c r="AF160" s="7"/>
       <c r="AG160" s="7"/>
-    </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH160" s="7"/>
+      <c r="AI160" s="7"/>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>191</v>
       </c>
@@ -9790,8 +10171,10 @@
       </c>
       <c r="AF161" s="7"/>
       <c r="AG161" s="7"/>
-    </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH161" s="7"/>
+      <c r="AI161" s="7"/>
+    </row>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>192</v>
       </c>
@@ -9837,8 +10220,10 @@
       </c>
       <c r="AF162" s="7"/>
       <c r="AG162" s="7"/>
-    </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH162" s="7"/>
+      <c r="AI162" s="7"/>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>193</v>
       </c>
@@ -9882,8 +10267,10 @@
       </c>
       <c r="AF163" s="7"/>
       <c r="AG163" s="7"/>
-    </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH163" s="7"/>
+      <c r="AI163" s="7"/>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>194</v>
       </c>
@@ -9933,8 +10320,10 @@
       <c r="AG164" s="7">
         <v>179.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH164" s="7"/>
+      <c r="AI164" s="7"/>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>195</v>
       </c>
@@ -9984,8 +10373,10 @@
       <c r="AG165" s="7">
         <v>146.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH165" s="7"/>
+      <c r="AI165" s="7"/>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>196</v>
       </c>
@@ -10039,8 +10430,10 @@
       <c r="AG166" s="7">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH166" s="7"/>
+      <c r="AI166" s="7"/>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>197</v>
       </c>
@@ -10090,8 +10483,10 @@
       <c r="AG167" s="7">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH167" s="7"/>
+      <c r="AI167" s="7"/>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>198</v>
       </c>
@@ -10141,8 +10536,10 @@
       <c r="AE168" s="7"/>
       <c r="AF168" s="7"/>
       <c r="AG168" s="7"/>
-    </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH168" s="7"/>
+      <c r="AI168" s="7"/>
+    </row>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>199</v>
       </c>
@@ -10184,8 +10581,10 @@
       <c r="AE169" s="7"/>
       <c r="AF169" s="7"/>
       <c r="AG169" s="7"/>
-    </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH169" s="7"/>
+      <c r="AI169" s="7"/>
+    </row>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>200</v>
       </c>
@@ -10235,8 +10634,10 @@
       <c r="AE170" s="7"/>
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
-    </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH170" s="7"/>
+      <c r="AI170" s="7"/>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>201</v>
       </c>
@@ -10278,8 +10679,10 @@
       <c r="AE171" s="7"/>
       <c r="AF171" s="7"/>
       <c r="AG171" s="7"/>
-    </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH171" s="7"/>
+      <c r="AI171" s="7"/>
+    </row>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>202</v>
       </c>
@@ -10321,8 +10724,10 @@
       <c r="AE172" s="7"/>
       <c r="AF172" s="7"/>
       <c r="AG172" s="7"/>
-    </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH172" s="7"/>
+      <c r="AI172" s="7"/>
+    </row>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>203</v>
       </c>
@@ -10366,8 +10771,10 @@
       <c r="AE173" s="7"/>
       <c r="AF173" s="7"/>
       <c r="AG173" s="7"/>
-    </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH173" s="7"/>
+      <c r="AI173" s="7"/>
+    </row>
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>204</v>
       </c>
@@ -10435,8 +10842,14 @@
       <c r="AE174" s="7"/>
       <c r="AF174" s="7"/>
       <c r="AG174" s="7"/>
-    </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH174" s="7">
+        <v>790</v>
+      </c>
+      <c r="AI174" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>205</v>
       </c>
@@ -10478,8 +10891,10 @@
       <c r="AE175" s="7"/>
       <c r="AF175" s="7"/>
       <c r="AG175" s="7"/>
-    </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH175" s="7"/>
+      <c r="AI175" s="7"/>
+    </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>206</v>
       </c>
@@ -10521,8 +10936,10 @@
       <c r="AE176" s="7"/>
       <c r="AF176" s="7"/>
       <c r="AG176" s="7"/>
-    </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH176" s="7"/>
+      <c r="AI176" s="7"/>
+    </row>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>207</v>
       </c>
@@ -10564,8 +10981,10 @@
       <c r="AE177" s="7"/>
       <c r="AF177" s="7"/>
       <c r="AG177" s="7"/>
-    </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH177" s="7"/>
+      <c r="AI177" s="7"/>
+    </row>
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>208</v>
       </c>
@@ -10607,8 +11026,10 @@
       <c r="AE178" s="7"/>
       <c r="AF178" s="7"/>
       <c r="AG178" s="7"/>
-    </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH178" s="7"/>
+      <c r="AI178" s="7"/>
+    </row>
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>209</v>
       </c>
@@ -10656,8 +11077,10 @@
       <c r="AG179" s="7">
         <v>238.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH179" s="7"/>
+      <c r="AI179" s="7"/>
+    </row>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>210</v>
       </c>
@@ -10707,8 +11130,10 @@
       <c r="AG180" s="7">
         <v>201.3</v>
       </c>
-    </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH180" s="7"/>
+      <c r="AI180" s="7"/>
+    </row>
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>211</v>
       </c>
@@ -10760,8 +11185,10 @@
       <c r="AG181" s="7">
         <v>151.9</v>
       </c>
-    </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH181" s="7"/>
+      <c r="AI181" s="7"/>
+    </row>
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>212</v>
       </c>
@@ -10809,8 +11236,10 @@
       <c r="AG182" s="7">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH182" s="7"/>
+      <c r="AI182" s="7"/>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>213</v>
       </c>
@@ -10852,8 +11281,10 @@
       <c r="AE183" s="7"/>
       <c r="AF183" s="7"/>
       <c r="AG183" s="7"/>
-    </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH183" s="7"/>
+      <c r="AI183" s="7"/>
+    </row>
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>214</v>
       </c>
@@ -10895,8 +11326,10 @@
       <c r="AE184" s="7"/>
       <c r="AF184" s="7"/>
       <c r="AG184" s="7"/>
-    </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH184" s="7"/>
+      <c r="AI184" s="7"/>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>215</v>
       </c>
@@ -10940,8 +11373,10 @@
       <c r="AE185" s="7"/>
       <c r="AF185" s="7"/>
       <c r="AG185" s="7"/>
-    </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH185" s="7"/>
+      <c r="AI185" s="7"/>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>216</v>
       </c>
@@ -10991,8 +11426,10 @@
       <c r="AE186" s="7"/>
       <c r="AF186" s="7"/>
       <c r="AG186" s="7"/>
-    </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH186" s="7"/>
+      <c r="AI186" s="7"/>
+    </row>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>217</v>
       </c>
@@ -11038,8 +11475,10 @@
       <c r="AE187" s="7"/>
       <c r="AF187" s="7"/>
       <c r="AG187" s="7"/>
-    </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH187" s="7"/>
+      <c r="AI187" s="7"/>
+    </row>
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>218</v>
       </c>
@@ -11081,8 +11520,10 @@
       <c r="AE188" s="7"/>
       <c r="AF188" s="7"/>
       <c r="AG188" s="7"/>
-    </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH188" s="7"/>
+      <c r="AI188" s="7"/>
+    </row>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>219</v>
       </c>
@@ -11126,8 +11567,10 @@
       <c r="AE189" s="7"/>
       <c r="AF189" s="7"/>
       <c r="AG189" s="7"/>
-    </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH189" s="7"/>
+      <c r="AI189" s="7"/>
+    </row>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>220</v>
       </c>
@@ -11169,8 +11612,10 @@
       <c r="AE190" s="7"/>
       <c r="AF190" s="7"/>
       <c r="AG190" s="7"/>
-    </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH190" s="7"/>
+      <c r="AI190" s="7"/>
+    </row>
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>221</v>
       </c>
@@ -11216,8 +11661,10 @@
       <c r="AE191" s="7"/>
       <c r="AF191" s="7"/>
       <c r="AG191" s="7"/>
-    </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH191" s="7"/>
+      <c r="AI191" s="7"/>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>222</v>
       </c>
@@ -11257,8 +11704,10 @@
       <c r="AE192" s="7"/>
       <c r="AF192" s="7"/>
       <c r="AG192" s="7"/>
-    </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH192" s="7"/>
+      <c r="AI192" s="7"/>
+    </row>
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>223</v>
       </c>
@@ -11322,8 +11771,12 @@
       <c r="AE193" s="7"/>
       <c r="AF193" s="7"/>
       <c r="AG193" s="7"/>
-    </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH193" s="7"/>
+      <c r="AI193" s="7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>224</v>
       </c>
@@ -11365,8 +11818,10 @@
       <c r="AE194" s="7"/>
       <c r="AF194" s="7"/>
       <c r="AG194" s="7"/>
-    </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH194" s="7"/>
+      <c r="AI194" s="7"/>
+    </row>
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>225</v>
       </c>
@@ -11410,8 +11865,10 @@
       <c r="AE195" s="7"/>
       <c r="AF195" s="7"/>
       <c r="AG195" s="7"/>
-    </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH195" s="7"/>
+      <c r="AI195" s="7"/>
+    </row>
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>226</v>
       </c>
@@ -11459,8 +11916,10 @@
       <c r="AG196" s="7">
         <v>325.7</v>
       </c>
-    </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH196" s="7"/>
+      <c r="AI196" s="7"/>
+    </row>
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>227</v>
       </c>
@@ -11508,8 +11967,10 @@
       <c r="AG197" s="7">
         <v>269.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH197" s="7"/>
+      <c r="AI197" s="7"/>
+    </row>
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>228</v>
       </c>
@@ -11557,8 +12018,10 @@
       <c r="AG198" s="7">
         <v>208.4</v>
       </c>
-    </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH198" s="7"/>
+      <c r="AI198" s="7"/>
+    </row>
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>229</v>
       </c>
@@ -11604,8 +12067,10 @@
       <c r="AG199" s="7">
         <v>124.7</v>
       </c>
-    </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH199" s="7"/>
+      <c r="AI199" s="7"/>
+    </row>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>230</v>
       </c>
@@ -11649,8 +12114,10 @@
       <c r="AE200" s="7"/>
       <c r="AF200" s="7"/>
       <c r="AG200" s="7"/>
-    </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH200" s="7"/>
+      <c r="AI200" s="7"/>
+    </row>
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>231</v>
       </c>
@@ -11700,8 +12167,10 @@
       <c r="AE201" s="7"/>
       <c r="AF201" s="7"/>
       <c r="AG201" s="7"/>
-    </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH201" s="7"/>
+      <c r="AI201" s="7"/>
+    </row>
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>232</v>
       </c>
@@ -11753,8 +12222,12 @@
       <c r="AE202" s="7"/>
       <c r="AF202" s="7"/>
       <c r="AG202" s="7"/>
-    </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH202" s="7"/>
+      <c r="AI202" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>233</v>
       </c>
@@ -11796,8 +12269,10 @@
       <c r="AE203" s="7"/>
       <c r="AF203" s="7"/>
       <c r="AG203" s="7"/>
-    </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH203" s="7"/>
+      <c r="AI203" s="7"/>
+    </row>
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>234</v>
       </c>
@@ -11839,8 +12314,10 @@
       <c r="AE204" s="7"/>
       <c r="AF204" s="7"/>
       <c r="AG204" s="7"/>
-    </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH204" s="7"/>
+      <c r="AI204" s="7"/>
+    </row>
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>235</v>
       </c>
@@ -11904,8 +12381,12 @@
       <c r="AE205" s="7"/>
       <c r="AF205" s="7"/>
       <c r="AG205" s="7"/>
-    </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH205" s="7"/>
+      <c r="AI205" s="7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>236</v>
       </c>
@@ -11947,8 +12428,10 @@
       <c r="AE206" s="7"/>
       <c r="AF206" s="7"/>
       <c r="AG206" s="7"/>
-    </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH206" s="7"/>
+      <c r="AI206" s="7"/>
+    </row>
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>237</v>
       </c>
@@ -11990,8 +12473,10 @@
       <c r="AE207" s="7"/>
       <c r="AF207" s="7"/>
       <c r="AG207" s="7"/>
-    </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH207" s="7"/>
+      <c r="AI207" s="7"/>
+    </row>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>238</v>
       </c>
@@ -12033,8 +12518,10 @@
       <c r="AE208" s="7"/>
       <c r="AF208" s="7"/>
       <c r="AG208" s="7"/>
-    </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH208" s="7"/>
+      <c r="AI208" s="7"/>
+    </row>
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>239</v>
       </c>
@@ -12082,8 +12569,10 @@
       <c r="AG209" s="7">
         <v>423.7</v>
       </c>
-    </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH209" s="7"/>
+      <c r="AI209" s="7"/>
+    </row>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>240</v>
       </c>
@@ -12135,8 +12624,10 @@
       <c r="AG210" s="7">
         <v>355.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH210" s="7"/>
+      <c r="AI210" s="7"/>
+    </row>
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>241</v>
       </c>
@@ -12178,8 +12669,10 @@
       <c r="AE211" s="7"/>
       <c r="AF211" s="7"/>
       <c r="AG211" s="7"/>
-    </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH211" s="7"/>
+      <c r="AI211" s="7"/>
+    </row>
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>242</v>
       </c>
@@ -12227,8 +12720,10 @@
       <c r="AG212" s="7">
         <v>263.39999999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH212" s="7"/>
+      <c r="AI212" s="7"/>
+    </row>
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>243</v>
       </c>
@@ -12280,8 +12775,10 @@
       <c r="AG213" s="7">
         <v>155.30000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH213" s="7"/>
+      <c r="AI213" s="7"/>
+    </row>
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>244</v>
       </c>
@@ -12323,8 +12820,10 @@
       <c r="AE214" s="7"/>
       <c r="AF214" s="7"/>
       <c r="AG214" s="7"/>
-    </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH214" s="7"/>
+      <c r="AI214" s="7"/>
+    </row>
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>245</v>
       </c>
@@ -12364,8 +12863,10 @@
       <c r="AE215" s="7"/>
       <c r="AF215" s="7"/>
       <c r="AG215" s="7"/>
-    </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH215" s="7"/>
+      <c r="AI215" s="7"/>
+    </row>
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>246</v>
       </c>
@@ -12407,8 +12908,10 @@
       <c r="AE216" s="7"/>
       <c r="AF216" s="7"/>
       <c r="AG216" s="7"/>
-    </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH216" s="7"/>
+      <c r="AI216" s="7"/>
+    </row>
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>247</v>
       </c>
@@ -12458,8 +12961,10 @@
       <c r="AE217" s="7"/>
       <c r="AF217" s="7"/>
       <c r="AG217" s="7"/>
-    </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH217" s="7"/>
+      <c r="AI217" s="7"/>
+    </row>
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>248</v>
       </c>
@@ -12501,8 +13006,10 @@
       <c r="AE218" s="7"/>
       <c r="AF218" s="7"/>
       <c r="AG218" s="7"/>
-    </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH218" s="7"/>
+      <c r="AI218" s="7"/>
+    </row>
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>249</v>
       </c>
@@ -12566,8 +13073,12 @@
       <c r="AE219" s="7"/>
       <c r="AF219" s="7"/>
       <c r="AG219" s="7"/>
-    </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH219" s="7"/>
+      <c r="AI219" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>250</v>
       </c>
@@ -12609,8 +13120,10 @@
       <c r="AE220" s="7"/>
       <c r="AF220" s="7"/>
       <c r="AG220" s="7"/>
-    </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH220" s="7"/>
+      <c r="AI220" s="7"/>
+    </row>
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>251</v>
       </c>
@@ -12652,8 +13165,10 @@
       <c r="AE221" s="7"/>
       <c r="AF221" s="7"/>
       <c r="AG221" s="7"/>
-    </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH221" s="7"/>
+      <c r="AI221" s="7"/>
+    </row>
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>252</v>
       </c>
@@ -12695,8 +13210,10 @@
       <c r="AE222" s="7"/>
       <c r="AF222" s="7"/>
       <c r="AG222" s="7"/>
-    </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH222" s="7"/>
+      <c r="AI222" s="7"/>
+    </row>
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>253</v>
       </c>
@@ -12738,8 +13255,10 @@
       <c r="AE223" s="7"/>
       <c r="AF223" s="7"/>
       <c r="AG223" s="7"/>
-    </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH223" s="7"/>
+      <c r="AI223" s="7"/>
+    </row>
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>254</v>
       </c>
@@ -12789,8 +13308,10 @@
       <c r="AG224" s="7">
         <v>583.79999999999995</v>
       </c>
-    </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH224" s="7"/>
+      <c r="AI224" s="7"/>
+    </row>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>255</v>
       </c>
@@ -12832,8 +13353,10 @@
       <c r="AE225" s="7"/>
       <c r="AF225" s="7"/>
       <c r="AG225" s="7"/>
-    </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH225" s="7"/>
+      <c r="AI225" s="7"/>
+    </row>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>256</v>
       </c>
@@ -12885,8 +13408,10 @@
       <c r="AG226" s="7">
         <v>476.5</v>
       </c>
-    </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH226" s="7"/>
+      <c r="AI226" s="7"/>
+    </row>
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>257</v>
       </c>
@@ -12934,8 +13459,10 @@
       <c r="AG227" s="7">
         <v>349.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH227" s="7"/>
+      <c r="AI227" s="7"/>
+    </row>
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>258</v>
       </c>
@@ -12977,8 +13504,10 @@
       <c r="AE228" s="7"/>
       <c r="AF228" s="7"/>
       <c r="AG228" s="7"/>
-    </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH228" s="7"/>
+      <c r="AI228" s="7"/>
+    </row>
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>259</v>
       </c>
@@ -13026,8 +13555,10 @@
       <c r="AG229" s="7">
         <v>204.9</v>
       </c>
-    </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH229" s="7"/>
+      <c r="AI229" s="7"/>
+    </row>
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>260</v>
       </c>
@@ -13077,8 +13608,10 @@
       <c r="AE230" s="7"/>
       <c r="AF230" s="7"/>
       <c r="AG230" s="7"/>
-    </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH230" s="7"/>
+      <c r="AI230" s="7"/>
+    </row>
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>261</v>
       </c>
@@ -13124,8 +13657,10 @@
       <c r="AE231" s="7"/>
       <c r="AF231" s="7"/>
       <c r="AG231" s="7"/>
-    </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH231" s="7"/>
+      <c r="AI231" s="7"/>
+    </row>
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>262</v>
       </c>
@@ -13165,8 +13700,10 @@
       <c r="AE232" s="7"/>
       <c r="AF232" s="7"/>
       <c r="AG232" s="7"/>
-    </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH232" s="7"/>
+      <c r="AI232" s="7"/>
+    </row>
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>263</v>
       </c>
@@ -13226,8 +13763,12 @@
       <c r="AE233" s="7"/>
       <c r="AF233" s="7"/>
       <c r="AG233" s="7"/>
-    </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH233" s="7"/>
+      <c r="AI233" s="7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>264</v>
       </c>
@@ -13269,8 +13810,10 @@
       <c r="AE234" s="7"/>
       <c r="AF234" s="7"/>
       <c r="AG234" s="7"/>
-    </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH234" s="7"/>
+      <c r="AI234" s="7"/>
+    </row>
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>265</v>
       </c>
@@ -13312,8 +13855,10 @@
       <c r="AE235" s="7"/>
       <c r="AF235" s="7"/>
       <c r="AG235" s="7"/>
-    </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH235" s="7"/>
+      <c r="AI235" s="7"/>
+    </row>
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>266</v>
       </c>
@@ -13355,8 +13900,10 @@
       <c r="AE236" s="7"/>
       <c r="AF236" s="7"/>
       <c r="AG236" s="7"/>
-    </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH236" s="7"/>
+      <c r="AI236" s="7"/>
+    </row>
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>267</v>
       </c>
@@ -13398,8 +13945,10 @@
       <c r="AE237" s="7"/>
       <c r="AF237" s="7"/>
       <c r="AG237" s="7"/>
-    </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH237" s="7"/>
+      <c r="AI237" s="7"/>
+    </row>
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>268</v>
       </c>
@@ -13441,8 +13990,10 @@
       <c r="AE238" s="7"/>
       <c r="AF238" s="7"/>
       <c r="AG238" s="7"/>
-    </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH238" s="7"/>
+      <c r="AI238" s="7"/>
+    </row>
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>269</v>
       </c>
@@ -13484,8 +14035,10 @@
       <c r="AE239" s="7"/>
       <c r="AF239" s="7"/>
       <c r="AG239" s="7"/>
-    </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH239" s="7"/>
+      <c r="AI239" s="7"/>
+    </row>
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>270</v>
       </c>
@@ -13533,8 +14086,10 @@
       <c r="AG240" s="7">
         <v>664.8</v>
       </c>
-    </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH240" s="7"/>
+      <c r="AI240" s="7"/>
+    </row>
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>271</v>
       </c>
@@ -13582,8 +14137,10 @@
       <c r="AG241" s="7">
         <v>537.70000000000005</v>
       </c>
-    </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH241" s="7"/>
+      <c r="AI241" s="7"/>
+    </row>
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>272</v>
       </c>
@@ -13625,8 +14182,10 @@
       <c r="AE242" s="7"/>
       <c r="AF242" s="7"/>
       <c r="AG242" s="7"/>
-    </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH242" s="7"/>
+      <c r="AI242" s="7"/>
+    </row>
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>273</v>
       </c>
@@ -13674,8 +14233,10 @@
       <c r="AG243" s="7">
         <v>396.1</v>
       </c>
-    </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH243" s="7"/>
+      <c r="AI243" s="7"/>
+    </row>
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>274</v>
       </c>
@@ -13723,8 +14284,10 @@
       <c r="AG244" s="7">
         <v>227.8</v>
       </c>
-    </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH244" s="7"/>
+      <c r="AI244" s="7"/>
+    </row>
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>275</v>
       </c>
@@ -13774,8 +14337,10 @@
       <c r="AE245" s="7"/>
       <c r="AF245" s="7"/>
       <c r="AG245" s="7"/>
-    </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH245" s="7"/>
+      <c r="AI245" s="7"/>
+    </row>
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>276</v>
       </c>
@@ -13831,8 +14396,10 @@
       <c r="AE246" s="7"/>
       <c r="AF246" s="7"/>
       <c r="AG246" s="7"/>
-    </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH246" s="7"/>
+      <c r="AI246" s="7"/>
+    </row>
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>277</v>
       </c>
@@ -13874,8 +14441,10 @@
       <c r="AE247" s="7"/>
       <c r="AF247" s="7"/>
       <c r="AG247" s="7"/>
-    </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH247" s="7"/>
+      <c r="AI247" s="7"/>
+    </row>
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>278</v>
       </c>
@@ -13917,8 +14486,10 @@
       <c r="AE248" s="7"/>
       <c r="AF248" s="7"/>
       <c r="AG248" s="7"/>
-    </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH248" s="7"/>
+      <c r="AI248" s="7"/>
+    </row>
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>279</v>
       </c>
@@ -13960,8 +14531,10 @@
       <c r="AE249" s="7"/>
       <c r="AF249" s="7"/>
       <c r="AG249" s="7"/>
-    </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH249" s="7"/>
+      <c r="AI249" s="7"/>
+    </row>
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>280</v>
       </c>
@@ -14003,8 +14576,10 @@
       <c r="AE250" s="7"/>
       <c r="AF250" s="7"/>
       <c r="AG250" s="7"/>
-    </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH250" s="7"/>
+      <c r="AI250" s="7"/>
+    </row>
+    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>281</v>
       </c>
@@ -14046,8 +14621,10 @@
       <c r="AE251" s="7"/>
       <c r="AF251" s="7"/>
       <c r="AG251" s="7"/>
-    </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH251" s="7"/>
+      <c r="AI251" s="7"/>
+    </row>
+    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>282</v>
       </c>
@@ -14089,8 +14666,10 @@
       <c r="AE252" s="7"/>
       <c r="AF252" s="7"/>
       <c r="AG252" s="7"/>
-    </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH252" s="7"/>
+      <c r="AI252" s="7"/>
+    </row>
+    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>283</v>
       </c>
@@ -14132,8 +14711,10 @@
       <c r="AE253" s="7"/>
       <c r="AF253" s="7"/>
       <c r="AG253" s="7"/>
-    </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH253" s="7"/>
+      <c r="AI253" s="7"/>
+    </row>
+    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>284</v>
       </c>
@@ -14175,8 +14756,10 @@
       <c r="AE254" s="7"/>
       <c r="AF254" s="7"/>
       <c r="AG254" s="7"/>
-    </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH254" s="7"/>
+      <c r="AI254" s="7"/>
+    </row>
+    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>285</v>
       </c>
@@ -14224,8 +14807,10 @@
       <c r="AE255" s="7"/>
       <c r="AF255" s="7"/>
       <c r="AG255" s="7"/>
-    </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH255" s="7"/>
+      <c r="AI255" s="7"/>
+    </row>
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>286</v>
       </c>
@@ -14281,8 +14866,10 @@
       <c r="AE256" s="7"/>
       <c r="AF256" s="7"/>
       <c r="AG256" s="7"/>
-    </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH256" s="7"/>
+      <c r="AI256" s="7"/>
+    </row>
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>287</v>
       </c>
@@ -14324,8 +14911,10 @@
       <c r="AE257" s="7"/>
       <c r="AF257" s="7"/>
       <c r="AG257" s="7"/>
-    </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH257" s="7"/>
+      <c r="AI257" s="7"/>
+    </row>
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>288</v>
       </c>
@@ -14367,8 +14956,10 @@
       <c r="AE258" s="7"/>
       <c r="AF258" s="7"/>
       <c r="AG258" s="7"/>
-    </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH258" s="7"/>
+      <c r="AI258" s="7"/>
+    </row>
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>289</v>
       </c>
@@ -14410,8 +15001,10 @@
       <c r="AE259" s="7"/>
       <c r="AF259" s="7"/>
       <c r="AG259" s="7"/>
-    </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH259" s="7"/>
+      <c r="AI259" s="7"/>
+    </row>
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>290</v>
       </c>
@@ -14453,8 +15046,10 @@
       <c r="AE260" s="7"/>
       <c r="AF260" s="7"/>
       <c r="AG260" s="7"/>
-    </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH260" s="7"/>
+      <c r="AI260" s="7"/>
+    </row>
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>291</v>
       </c>
@@ -14496,8 +15091,10 @@
       <c r="AE261" s="7"/>
       <c r="AF261" s="7"/>
       <c r="AG261" s="7"/>
-    </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH261" s="7"/>
+      <c r="AI261" s="7"/>
+    </row>
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>292</v>
       </c>
@@ -14539,8 +15136,10 @@
       <c r="AE262" s="7"/>
       <c r="AF262" s="7"/>
       <c r="AG262" s="7"/>
-    </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH262" s="7"/>
+      <c r="AI262" s="7"/>
+    </row>
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>293</v>
       </c>
@@ -14582,8 +15181,10 @@
       <c r="AE263" s="7"/>
       <c r="AF263" s="7"/>
       <c r="AG263" s="7"/>
-    </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH263" s="7"/>
+      <c r="AI263" s="7"/>
+    </row>
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>294</v>
       </c>
@@ -14625,8 +15226,10 @@
       <c r="AE264" s="7"/>
       <c r="AF264" s="7"/>
       <c r="AG264" s="7"/>
-    </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH264" s="7"/>
+      <c r="AI264" s="7"/>
+    </row>
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>295</v>
       </c>
@@ -14668,8 +15271,10 @@
       <c r="AE265" s="7"/>
       <c r="AF265" s="7"/>
       <c r="AG265" s="7"/>
-    </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH265" s="7"/>
+      <c r="AI265" s="7"/>
+    </row>
+    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>296</v>
       </c>
@@ -14717,8 +15322,10 @@
       <c r="AE266" s="7"/>
       <c r="AF266" s="7"/>
       <c r="AG266" s="7"/>
-    </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH266" s="7"/>
+      <c r="AI266" s="7"/>
+    </row>
+    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>297</v>
       </c>
@@ -14768,8 +15375,10 @@
       <c r="AE267" s="7"/>
       <c r="AF267" s="7"/>
       <c r="AG267" s="7"/>
-    </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH267" s="7"/>
+      <c r="AI267" s="7"/>
+    </row>
+    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>298</v>
       </c>
@@ -14811,8 +15420,10 @@
       <c r="AE268" s="7"/>
       <c r="AF268" s="7"/>
       <c r="AG268" s="7"/>
-    </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH268" s="7"/>
+      <c r="AI268" s="7"/>
+    </row>
+    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>299</v>
       </c>
@@ -14854,8 +15465,10 @@
       <c r="AE269" s="7"/>
       <c r="AF269" s="7"/>
       <c r="AG269" s="7"/>
-    </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH269" s="7"/>
+      <c r="AI269" s="7"/>
+    </row>
+    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>300</v>
       </c>
@@ -14897,8 +15510,10 @@
       <c r="AE270" s="7"/>
       <c r="AF270" s="7"/>
       <c r="AG270" s="7"/>
-    </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH270" s="7"/>
+      <c r="AI270" s="7"/>
+    </row>
+    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>301</v>
       </c>
@@ -14940,8 +15555,10 @@
       <c r="AE271" s="7"/>
       <c r="AF271" s="7"/>
       <c r="AG271" s="7"/>
-    </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH271" s="7"/>
+      <c r="AI271" s="7"/>
+    </row>
+    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>302</v>
       </c>
@@ -14983,8 +15600,10 @@
       <c r="AE272" s="7"/>
       <c r="AF272" s="7"/>
       <c r="AG272" s="7"/>
-    </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH272" s="7"/>
+      <c r="AI272" s="7"/>
+    </row>
+    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>303</v>
       </c>
@@ -15026,8 +15645,10 @@
       <c r="AE273" s="7"/>
       <c r="AF273" s="7"/>
       <c r="AG273" s="7"/>
-    </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH273" s="7"/>
+      <c r="AI273" s="7"/>
+    </row>
+    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>304</v>
       </c>
@@ -15069,8 +15690,10 @@
       <c r="AE274" s="7"/>
       <c r="AF274" s="7"/>
       <c r="AG274" s="7"/>
-    </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH274" s="7"/>
+      <c r="AI274" s="7"/>
+    </row>
+    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>305</v>
       </c>
@@ -15112,8 +15735,10 @@
       <c r="AE275" s="7"/>
       <c r="AF275" s="7"/>
       <c r="AG275" s="7"/>
-    </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH275" s="7"/>
+      <c r="AI275" s="7"/>
+    </row>
+    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>306</v>
       </c>
@@ -15155,8 +15780,10 @@
       <c r="AE276" s="7"/>
       <c r="AF276" s="7"/>
       <c r="AG276" s="7"/>
-    </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH276" s="7"/>
+      <c r="AI276" s="7"/>
+    </row>
+    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>307</v>
       </c>
@@ -15198,8 +15825,10 @@
       <c r="AE277" s="7"/>
       <c r="AF277" s="7"/>
       <c r="AG277" s="7"/>
-    </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH277" s="7"/>
+      <c r="AI277" s="7"/>
+    </row>
+    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>308</v>
       </c>
@@ -15249,8 +15878,10 @@
       <c r="AE278" s="7"/>
       <c r="AF278" s="7"/>
       <c r="AG278" s="7"/>
-    </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH278" s="7"/>
+      <c r="AI278" s="7"/>
+    </row>
+    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>309</v>
       </c>
@@ -15300,8 +15931,10 @@
       <c r="AE279" s="7"/>
       <c r="AF279" s="7"/>
       <c r="AG279" s="7"/>
-    </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH279" s="7"/>
+      <c r="AI279" s="7"/>
+    </row>
+    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>310</v>
       </c>
@@ -15343,8 +15976,10 @@
       <c r="AE280" s="7"/>
       <c r="AF280" s="7"/>
       <c r="AG280" s="7"/>
-    </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH280" s="7"/>
+      <c r="AI280" s="7"/>
+    </row>
+    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>311</v>
       </c>
@@ -15386,8 +16021,10 @@
       <c r="AE281" s="7"/>
       <c r="AF281" s="7"/>
       <c r="AG281" s="7"/>
-    </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH281" s="7"/>
+      <c r="AI281" s="7"/>
+    </row>
+    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>312</v>
       </c>
@@ -15429,8 +16066,10 @@
       <c r="AE282" s="7"/>
       <c r="AF282" s="7"/>
       <c r="AG282" s="7"/>
-    </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH282" s="7"/>
+      <c r="AI282" s="7"/>
+    </row>
+    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>313</v>
       </c>
@@ -15472,8 +16111,10 @@
       <c r="AE283" s="7"/>
       <c r="AF283" s="7"/>
       <c r="AG283" s="7"/>
-    </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH283" s="7"/>
+      <c r="AI283" s="7"/>
+    </row>
+    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>314</v>
       </c>
@@ -15515,8 +16156,10 @@
       <c r="AE284" s="7"/>
       <c r="AF284" s="7"/>
       <c r="AG284" s="7"/>
-    </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH284" s="7"/>
+      <c r="AI284" s="7"/>
+    </row>
+    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>315</v>
       </c>
@@ -15558,8 +16201,10 @@
       <c r="AE285" s="7"/>
       <c r="AF285" s="7"/>
       <c r="AG285" s="7"/>
-    </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH285" s="7"/>
+      <c r="AI285" s="7"/>
+    </row>
+    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>316</v>
       </c>
@@ -15601,8 +16246,10 @@
       <c r="AE286" s="7"/>
       <c r="AF286" s="7"/>
       <c r="AG286" s="7"/>
-    </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH286" s="7"/>
+      <c r="AI286" s="7"/>
+    </row>
+    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>317</v>
       </c>
@@ -15644,8 +16291,10 @@
       <c r="AE287" s="7"/>
       <c r="AF287" s="7"/>
       <c r="AG287" s="7"/>
-    </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH287" s="7"/>
+      <c r="AI287" s="7"/>
+    </row>
+    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>318</v>
       </c>
@@ -15687,8 +16336,10 @@
       <c r="AE288" s="7"/>
       <c r="AF288" s="7"/>
       <c r="AG288" s="7"/>
-    </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH288" s="7"/>
+      <c r="AI288" s="7"/>
+    </row>
+    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>319</v>
       </c>
@@ -15730,8 +16381,10 @@
       <c r="AE289" s="7"/>
       <c r="AF289" s="7"/>
       <c r="AG289" s="7"/>
-    </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH289" s="7"/>
+      <c r="AI289" s="7"/>
+    </row>
+    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>320</v>
       </c>
@@ -15779,8 +16432,10 @@
       <c r="AE290" s="7"/>
       <c r="AF290" s="7"/>
       <c r="AG290" s="7"/>
-    </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH290" s="7"/>
+      <c r="AI290" s="7"/>
+    </row>
+    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
       <c r="D291" s="7"/>
@@ -15813,6 +16468,8 @@
       <c r="AE291" s="7"/>
       <c r="AF291" s="7"/>
       <c r="AG291" s="7"/>
+      <c r="AH291" s="7"/>
+      <c r="AI291" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/templates/250407管配件重量表.xlsx
+++ b/templates/250407管配件重量表.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Q235A" sheetId="2" r:id="rId1"/>
+    <sheet name="球铁" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>直管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +88,6 @@
     <t>90°异径弯头</t>
   </si>
   <si>
-    <t>穿墙套管3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管径1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,6 +996,14 @@
   </si>
   <si>
     <t>法兰</t>
+  </si>
+  <si>
+    <t>穿墙套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿墙套管墙内钢环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1409,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,13 +1430,13 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1440,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3">
-        <v>4</v>
+        <v>322</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -1500,39 +1505,39 @@
         <v>19</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="AH1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10">
         <v>20</v>
@@ -1577,7 +1582,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10">
         <v>25</v>
@@ -1624,7 +1629,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10">
         <v>32</v>
@@ -1671,7 +1676,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10">
         <v>40</v>
@@ -1718,7 +1723,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10">
         <v>50</v>
@@ -1789,7 +1794,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10">
         <v>65</v>
@@ -1854,7 +1859,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="10">
         <v>70</v>
@@ -1901,7 +1906,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10">
         <v>70</v>
@@ -1948,7 +1953,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="11">
         <v>75</v>
@@ -1995,7 +2000,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="10">
         <v>80</v>
@@ -2084,7 +2089,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10">
         <v>80</v>
@@ -2139,7 +2144,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="10">
         <v>80</v>
@@ -2192,7 +2197,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="11">
         <v>89</v>
@@ -2245,7 +2250,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10">
         <v>100</v>
@@ -2338,7 +2343,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11">
         <v>100</v>
@@ -2391,7 +2396,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11">
         <v>100</v>
@@ -2444,7 +2449,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="11">
         <v>100</v>
@@ -2497,7 +2502,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="11">
         <v>108</v>
@@ -2550,7 +2555,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11">
         <v>125</v>
@@ -2629,7 +2634,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="11">
         <v>125</v>
@@ -2682,7 +2687,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="11">
         <v>125</v>
@@ -2731,7 +2736,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="11">
         <v>125</v>
@@ -2780,7 +2785,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="11">
         <v>133</v>
@@ -2833,7 +2838,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="10">
         <v>150</v>
@@ -2926,7 +2931,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="10">
         <v>150</v>
@@ -2973,7 +2978,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="10">
         <v>150</v>
@@ -3026,7 +3031,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="10">
         <v>150</v>
@@ -3085,7 +3090,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="10">
         <v>150</v>
@@ -3138,7 +3143,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="11">
         <v>159</v>
@@ -3191,7 +3196,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10">
         <v>159</v>
@@ -3236,7 +3241,7 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="10">
         <v>159</v>
@@ -3283,7 +3288,7 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="10">
         <v>190</v>
@@ -3328,7 +3333,7 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="10">
         <v>200</v>
@@ -3421,7 +3426,7 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="10">
         <v>200</v>
@@ -3474,7 +3479,7 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="10">
         <v>200</v>
@@ -3527,7 +3532,7 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="10">
         <v>200</v>
@@ -3584,7 +3589,7 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="10">
         <v>200</v>
@@ -3629,7 +3634,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="11">
         <v>219</v>
@@ -3682,7 +3687,7 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="10">
         <v>225</v>
@@ -3727,7 +3732,7 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="10">
         <v>245</v>
@@ -3772,7 +3777,7 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="10">
         <v>245</v>
@@ -3819,7 +3824,7 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="10">
         <v>250</v>
@@ -3912,7 +3917,7 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="10">
         <v>250</v>
@@ -3967,7 +3972,7 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="10">
         <v>250</v>
@@ -4020,7 +4025,7 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="10">
         <v>250</v>
@@ -4073,7 +4078,7 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="10">
         <v>250</v>
@@ -4126,7 +4131,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="11">
         <v>273</v>
@@ -4179,7 +4184,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="10">
         <v>300</v>
@@ -4272,7 +4277,7 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="10">
         <v>300</v>
@@ -4319,7 +4324,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="10">
         <v>300</v>
@@ -4374,7 +4379,7 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="10">
         <v>300</v>
@@ -4427,7 +4432,7 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="10">
         <v>300</v>
@@ -4486,7 +4491,7 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="10">
         <v>300</v>
@@ -4539,7 +4544,7 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="10">
         <v>325</v>
@@ -4584,7 +4589,7 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="10">
         <v>325</v>
@@ -4631,7 +4636,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="11">
         <v>325</v>
@@ -4684,7 +4689,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="10">
         <v>350</v>
@@ -4771,7 +4776,7 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="10">
         <v>350</v>
@@ -4818,7 +4823,7 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="10">
         <v>350</v>
@@ -4865,7 +4870,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="10">
         <v>350</v>
@@ -4918,7 +4923,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="10">
         <v>350</v>
@@ -4971,7 +4976,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="10">
         <v>350</v>
@@ -5024,7 +5029,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="10">
         <v>350</v>
@@ -5077,7 +5082,7 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="10">
         <v>375</v>
@@ -5122,7 +5127,7 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="10">
         <v>375</v>
@@ -5167,7 +5172,7 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="11">
         <v>377</v>
@@ -5220,7 +5225,7 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="10">
         <v>400</v>
@@ -5267,7 +5272,7 @@
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="10">
         <v>400</v>
@@ -5314,7 +5319,7 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="10">
         <v>400</v>
@@ -5361,7 +5366,7 @@
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="10">
         <v>400</v>
@@ -5414,7 +5419,7 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="10">
         <v>400</v>
@@ -5461,7 +5466,7 @@
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="10">
         <v>400</v>
@@ -5520,7 +5525,7 @@
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="10">
         <v>400</v>
@@ -5573,7 +5578,7 @@
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="10">
         <v>400</v>
@@ -5626,7 +5631,7 @@
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="10">
         <v>400</v>
@@ -5719,7 +5724,7 @@
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="11">
         <v>426</v>
@@ -5772,7 +5777,7 @@
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="10">
         <v>450</v>
@@ -5851,7 +5856,7 @@
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="10">
         <v>450</v>
@@ -5898,7 +5903,7 @@
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="10">
         <v>450</v>
@@ -5945,7 +5950,7 @@
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="10">
         <v>450</v>
@@ -5992,7 +5997,7 @@
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" s="10">
         <v>450</v>
@@ -6039,7 +6044,7 @@
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="10">
         <v>450</v>
@@ -6092,7 +6097,7 @@
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="10">
         <v>450</v>
@@ -6151,7 +6156,7 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" s="10">
         <v>450</v>
@@ -6204,7 +6209,7 @@
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="10">
         <v>450</v>
@@ -6257,7 +6262,7 @@
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="10">
         <v>478</v>
@@ -6302,7 +6307,7 @@
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="10">
         <v>478</v>
@@ -6349,7 +6354,7 @@
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89" s="11">
         <v>480</v>
@@ -6402,7 +6407,7 @@
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B90" s="10">
         <v>500</v>
@@ -6487,7 +6492,7 @@
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" s="10">
         <v>500</v>
@@ -6534,7 +6539,7 @@
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B92" s="10">
         <v>500</v>
@@ -6581,7 +6586,7 @@
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="10">
         <v>500</v>
@@ -6628,7 +6633,7 @@
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B94" s="10">
         <v>500</v>
@@ -6677,7 +6682,7 @@
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="10">
         <v>500</v>
@@ -6724,7 +6729,7 @@
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B96" s="10">
         <v>500</v>
@@ -6777,7 +6782,7 @@
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B97" s="10">
         <v>500</v>
@@ -6830,7 +6835,7 @@
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B98" s="10">
         <v>500</v>
@@ -6883,7 +6888,7 @@
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" s="10">
         <v>500</v>
@@ -6936,7 +6941,7 @@
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" s="10">
         <v>525</v>
@@ -6981,7 +6986,7 @@
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" s="11">
         <v>530</v>
@@ -7034,7 +7039,7 @@
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102" s="10">
         <v>600</v>
@@ -7119,7 +7124,7 @@
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" s="10">
         <v>600</v>
@@ -7166,7 +7171,7 @@
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" s="10">
         <v>600</v>
@@ -7213,7 +7218,7 @@
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" s="10">
         <v>600</v>
@@ -7260,7 +7265,7 @@
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="10">
         <v>600</v>
@@ -7307,7 +7312,7 @@
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B107" s="11">
         <v>600</v>
@@ -7360,7 +7365,7 @@
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="11">
         <v>600</v>
@@ -7419,7 +7424,7 @@
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109" s="11">
         <v>600</v>
@@ -7472,7 +7477,7 @@
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110" s="11">
         <v>600</v>
@@ -7525,7 +7530,7 @@
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="11">
         <v>625</v>
@@ -7570,7 +7575,7 @@
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B112" s="11">
         <v>630</v>
@@ -7615,7 +7620,7 @@
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B113" s="11">
         <v>630</v>
@@ -7662,7 +7667,7 @@
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B114" s="11">
         <v>630</v>
@@ -7715,7 +7720,7 @@
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" s="11">
         <v>675</v>
@@ -7760,7 +7765,7 @@
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B116" s="10">
         <v>700</v>
@@ -7845,7 +7850,7 @@
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B117" s="10">
         <v>700</v>
@@ -7892,7 +7897,7 @@
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B118" s="10">
         <v>700</v>
@@ -7939,7 +7944,7 @@
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B119" s="10">
         <v>700</v>
@@ -7986,7 +7991,7 @@
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B120" s="10">
         <v>700</v>
@@ -8033,7 +8038,7 @@
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B121" s="10">
         <v>700</v>
@@ -8080,7 +8085,7 @@
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B122" s="10">
         <v>700</v>
@@ -8133,7 +8138,7 @@
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123" s="10">
         <v>700</v>
@@ -8186,7 +8191,7 @@
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B124" s="10">
         <v>700</v>
@@ -8245,7 +8250,7 @@
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B125" s="10">
         <v>700</v>
@@ -8298,7 +8303,7 @@
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B126" s="11">
         <v>720</v>
@@ -8351,7 +8356,7 @@
     </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B127" s="10">
         <v>750</v>
@@ -8396,7 +8401,7 @@
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" s="10">
         <v>770</v>
@@ -8441,7 +8446,7 @@
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B129" s="10">
         <v>770</v>
@@ -8488,7 +8493,7 @@
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B130" s="10">
         <v>800</v>
@@ -8573,7 +8578,7 @@
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B131" s="10">
         <v>800</v>
@@ -8620,7 +8625,7 @@
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B132" s="10">
         <v>800</v>
@@ -8667,7 +8672,7 @@
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B133" s="10">
         <v>800</v>
@@ -8714,7 +8719,7 @@
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B134" s="10">
         <v>800</v>
@@ -8763,7 +8768,7 @@
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B135" s="10">
         <v>800</v>
@@ -8810,7 +8815,7 @@
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B136" s="10">
         <v>800</v>
@@ -8863,7 +8868,7 @@
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B137" s="10">
         <v>800</v>
@@ -8916,7 +8921,7 @@
     </row>
     <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138" s="10">
         <v>800</v>
@@ -8973,7 +8978,7 @@
     </row>
     <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B139" s="10">
         <v>800</v>
@@ -9026,7 +9031,7 @@
     </row>
     <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B140" s="11">
         <v>820</v>
@@ -9079,7 +9084,7 @@
     </row>
     <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B141" s="10">
         <v>880</v>
@@ -9124,7 +9129,7 @@
     </row>
     <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B142" s="10">
         <v>880</v>
@@ -9171,7 +9176,7 @@
     </row>
     <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B143" s="10">
         <v>900</v>
@@ -9256,7 +9261,7 @@
     </row>
     <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" s="10">
         <v>900</v>
@@ -9303,7 +9308,7 @@
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B145" s="10">
         <v>900</v>
@@ -9350,7 +9355,7 @@
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B146" s="10">
         <v>900</v>
@@ -9397,7 +9402,7 @@
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B147" s="10">
         <v>900</v>
@@ -9444,7 +9449,7 @@
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B148" s="10">
         <v>900</v>
@@ -9493,7 +9498,7 @@
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149" s="10">
         <v>900</v>
@@ -9540,7 +9545,7 @@
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B150" s="10">
         <v>900</v>
@@ -9593,7 +9598,7 @@
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B151" s="10">
         <v>900</v>
@@ -9648,7 +9653,7 @@
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B152" s="10">
         <v>900</v>
@@ -9705,7 +9710,7 @@
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B153" s="10">
         <v>900</v>
@@ -9758,7 +9763,7 @@
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B154" s="11">
         <v>920</v>
@@ -9811,7 +9816,7 @@
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B155" s="10">
         <v>980</v>
@@ -9856,7 +9861,7 @@
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B156" s="10">
         <v>980</v>
@@ -9903,7 +9908,7 @@
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" s="10">
         <v>1000</v>
@@ -9988,7 +9993,7 @@
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B158" s="10">
         <v>1000</v>
@@ -10035,7 +10040,7 @@
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B159" s="10">
         <v>1000</v>
@@ -10082,7 +10087,7 @@
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B160" s="10">
         <v>1000</v>
@@ -10129,7 +10134,7 @@
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B161" s="10">
         <v>1000</v>
@@ -10176,7 +10181,7 @@
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B162" s="10">
         <v>1000</v>
@@ -10225,7 +10230,7 @@
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B163" s="10">
         <v>1000</v>
@@ -10272,7 +10277,7 @@
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B164" s="10">
         <v>1000</v>
@@ -10325,7 +10330,7 @@
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B165" s="10">
         <v>1000</v>
@@ -10378,7 +10383,7 @@
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B166" s="10">
         <v>1000</v>
@@ -10435,7 +10440,7 @@
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B167" s="10">
         <v>1000</v>
@@ -10488,7 +10493,7 @@
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B168" s="11">
         <v>1020</v>
@@ -10541,7 +10546,7 @@
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B169" s="10">
         <v>1050</v>
@@ -10586,7 +10591,7 @@
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B170" s="11">
         <v>1100</v>
@@ -10639,7 +10644,7 @@
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B171" s="11">
         <v>1100</v>
@@ -10684,7 +10689,7 @@
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B172" s="11">
         <v>1120</v>
@@ -10729,7 +10734,7 @@
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B173" s="11">
         <v>1120</v>
@@ -10776,7 +10781,7 @@
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B174" s="10">
         <v>1200</v>
@@ -10851,7 +10856,7 @@
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B175" s="10">
         <v>1200</v>
@@ -10896,7 +10901,7 @@
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B176" s="10">
         <v>1200</v>
@@ -10941,7 +10946,7 @@
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B177" s="10">
         <v>1200</v>
@@ -10986,7 +10991,7 @@
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B178" s="10">
         <v>1200</v>
@@ -11031,7 +11036,7 @@
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B179" s="10">
         <v>1200</v>
@@ -11082,7 +11087,7 @@
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B180" s="10">
         <v>1200</v>
@@ -11135,7 +11140,7 @@
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B181" s="10">
         <v>1200</v>
@@ -11190,7 +11195,7 @@
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B182" s="10">
         <v>1200</v>
@@ -11241,7 +11246,7 @@
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B183" s="10">
         <v>1200</v>
@@ -11286,7 +11291,7 @@
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B184" s="10">
         <v>1220</v>
@@ -11331,7 +11336,7 @@
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185" s="10">
         <v>1220</v>
@@ -11378,7 +11383,7 @@
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B186" s="11">
         <v>1220</v>
@@ -11431,7 +11436,7 @@
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B187" s="11">
         <v>1300</v>
@@ -11480,7 +11485,7 @@
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B188" s="11">
         <v>1300</v>
@@ -11525,7 +11530,7 @@
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B189" s="11">
         <v>1300</v>
@@ -11572,7 +11577,7 @@
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B190" s="11">
         <v>1350</v>
@@ -11617,7 +11622,7 @@
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B191" s="11">
         <v>1350</v>
@@ -11666,7 +11671,7 @@
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B192" s="11">
         <v>1350</v>
@@ -11709,7 +11714,7 @@
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B193" s="10">
         <v>1400</v>
@@ -11778,7 +11783,7 @@
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B194" s="10">
         <v>1400</v>
@@ -11823,7 +11828,7 @@
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B195" s="10">
         <v>1400</v>
@@ -11870,7 +11875,7 @@
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B196" s="10">
         <v>1400</v>
@@ -11921,7 +11926,7 @@
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B197" s="10">
         <v>1400</v>
@@ -11972,7 +11977,7 @@
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B198" s="10">
         <v>1400</v>
@@ -12023,7 +12028,7 @@
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B199" s="10">
         <v>1400</v>
@@ -12072,7 +12077,7 @@
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B200" s="10">
         <v>1400</v>
@@ -12119,7 +12124,7 @@
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B201" s="11">
         <v>1420</v>
@@ -12172,7 +12177,7 @@
     </row>
     <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B202" s="10">
         <v>1500</v>
@@ -12229,7 +12234,7 @@
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B203" s="10">
         <v>1500</v>
@@ -12274,7 +12279,7 @@
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B204" s="10">
         <v>1500</v>
@@ -12319,7 +12324,7 @@
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B205" s="10">
         <v>1600</v>
@@ -12388,7 +12393,7 @@
     </row>
     <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B206" s="10">
         <v>1600</v>
@@ -12433,7 +12438,7 @@
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B207" s="10">
         <v>1600</v>
@@ -12478,7 +12483,7 @@
     </row>
     <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B208" s="10">
         <v>1600</v>
@@ -12523,7 +12528,7 @@
     </row>
     <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B209" s="10">
         <v>1600</v>
@@ -12574,7 +12579,7 @@
     </row>
     <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B210" s="10">
         <v>1600</v>
@@ -12629,7 +12634,7 @@
     </row>
     <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B211" s="10">
         <v>1600</v>
@@ -12674,7 +12679,7 @@
     </row>
     <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B212" s="10">
         <v>1600</v>
@@ -12725,7 +12730,7 @@
     </row>
     <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B213" s="10">
         <v>1600</v>
@@ -12780,7 +12785,7 @@
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B214" s="10">
         <v>1600</v>
@@ -12825,7 +12830,7 @@
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B215" s="10">
         <v>1620</v>
@@ -12868,7 +12873,7 @@
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B216" s="10">
         <v>1620</v>
@@ -12913,7 +12918,7 @@
     </row>
     <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B217" s="11">
         <v>1620</v>
@@ -12966,7 +12971,7 @@
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B218" s="10">
         <v>1650</v>
@@ -13011,7 +13016,7 @@
     </row>
     <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B219" s="10">
         <v>1800</v>
@@ -13080,7 +13085,7 @@
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B220" s="10">
         <v>1800</v>
@@ -13125,7 +13130,7 @@
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B221" s="10">
         <v>1800</v>
@@ -13170,7 +13175,7 @@
     </row>
     <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B222" s="10">
         <v>1800</v>
@@ -13215,7 +13220,7 @@
     </row>
     <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B223" s="10">
         <v>1800</v>
@@ -13260,7 +13265,7 @@
     </row>
     <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B224" s="10">
         <v>1800</v>
@@ -13313,7 +13318,7 @@
     </row>
     <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B225" s="10">
         <v>1800</v>
@@ -13358,7 +13363,7 @@
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B226" s="10">
         <v>1800</v>
@@ -13413,7 +13418,7 @@
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B227" s="10">
         <v>1800</v>
@@ -13464,7 +13469,7 @@
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B228" s="10">
         <v>1800</v>
@@ -13509,7 +13514,7 @@
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B229" s="10">
         <v>1800</v>
@@ -13560,7 +13565,7 @@
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B230" s="11">
         <v>1820</v>
@@ -13613,7 +13618,7 @@
     </row>
     <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B231" s="10">
         <v>1880</v>
@@ -13662,7 +13667,7 @@
     </row>
     <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B232" s="10">
         <v>1880</v>
@@ -13705,7 +13710,7 @@
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B233" s="10">
         <v>2000</v>
@@ -13770,7 +13775,7 @@
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B234" s="10">
         <v>2000</v>
@@ -13815,7 +13820,7 @@
     </row>
     <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B235" s="10">
         <v>2000</v>
@@ -13860,7 +13865,7 @@
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B236" s="10">
         <v>2000</v>
@@ -13905,7 +13910,7 @@
     </row>
     <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B237" s="10">
         <v>2000</v>
@@ -13950,7 +13955,7 @@
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B238" s="10">
         <v>2000</v>
@@ -13995,7 +14000,7 @@
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B239" s="10">
         <v>2000</v>
@@ -14040,7 +14045,7 @@
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B240" s="10">
         <v>2000</v>
@@ -14091,7 +14096,7 @@
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B241" s="10">
         <v>2000</v>
@@ -14142,7 +14147,7 @@
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B242" s="10">
         <v>2000</v>
@@ -14187,7 +14192,7 @@
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B243" s="10">
         <v>2000</v>
@@ -14238,7 +14243,7 @@
     </row>
     <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B244" s="10">
         <v>2000</v>
@@ -14289,7 +14294,7 @@
     </row>
     <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B245" s="11">
         <v>2020</v>
@@ -14342,7 +14347,7 @@
     </row>
     <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B246" s="11">
         <v>2200</v>
@@ -14401,7 +14406,7 @@
     </row>
     <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B247" s="11">
         <v>2200</v>
@@ -14446,7 +14451,7 @@
     </row>
     <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B248" s="11">
         <v>2200</v>
@@ -14491,7 +14496,7 @@
     </row>
     <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B249" s="11">
         <v>2200</v>
@@ -14536,7 +14541,7 @@
     </row>
     <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B250" s="11">
         <v>2200</v>
@@ -14581,7 +14586,7 @@
     </row>
     <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B251" s="11">
         <v>2200</v>
@@ -14626,7 +14631,7 @@
     </row>
     <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B252" s="11">
         <v>2200</v>
@@ -14671,7 +14676,7 @@
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B253" s="11">
         <v>2200</v>
@@ -14716,7 +14721,7 @@
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B254" s="11">
         <v>2200</v>
@@ -14761,7 +14766,7 @@
     </row>
     <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B255" s="11">
         <v>2220</v>
@@ -14812,7 +14817,7 @@
     </row>
     <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B256" s="11">
         <v>2400</v>
@@ -14871,7 +14876,7 @@
     </row>
     <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B257" s="11">
         <v>2400</v>
@@ -14916,7 +14921,7 @@
     </row>
     <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B258" s="11">
         <v>2400</v>
@@ -14961,7 +14966,7 @@
     </row>
     <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B259" s="11">
         <v>2400</v>
@@ -15006,7 +15011,7 @@
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B260" s="11">
         <v>2400</v>
@@ -15051,7 +15056,7 @@
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B261" s="11">
         <v>2400</v>
@@ -15096,7 +15101,7 @@
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B262" s="11">
         <v>2400</v>
@@ -15141,7 +15146,7 @@
     </row>
     <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B263" s="11">
         <v>2400</v>
@@ -15186,7 +15191,7 @@
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B264" s="11">
         <v>2400</v>
@@ -15231,7 +15236,7 @@
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B265" s="11">
         <v>2400</v>
@@ -15276,7 +15281,7 @@
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B266" s="11">
         <v>2420</v>
@@ -15327,7 +15332,7 @@
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B267" s="11">
         <v>2600</v>
@@ -15380,7 +15385,7 @@
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B268" s="11">
         <v>2600</v>
@@ -15425,7 +15430,7 @@
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B269" s="11">
         <v>2600</v>
@@ -15470,7 +15475,7 @@
     </row>
     <row r="270" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B270" s="11">
         <v>2600</v>
@@ -15515,7 +15520,7 @@
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B271" s="11">
         <v>2600</v>
@@ -15560,7 +15565,7 @@
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B272" s="11">
         <v>2600</v>
@@ -15605,7 +15610,7 @@
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B273" s="11">
         <v>2600</v>
@@ -15650,7 +15655,7 @@
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B274" s="11">
         <v>2600</v>
@@ -15695,7 +15700,7 @@
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B275" s="11">
         <v>2600</v>
@@ -15740,7 +15745,7 @@
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B276" s="11">
         <v>2600</v>
@@ -15785,7 +15790,7 @@
     </row>
     <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B277" s="11">
         <v>2600</v>
@@ -15830,7 +15835,7 @@
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B278" s="11">
         <v>2620</v>
@@ -15883,7 +15888,7 @@
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B279" s="11">
         <v>3000</v>
@@ -15936,7 +15941,7 @@
     </row>
     <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B280" s="11">
         <v>3000</v>
@@ -15981,7 +15986,7 @@
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B281" s="11">
         <v>3000</v>
@@ -16026,7 +16031,7 @@
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B282" s="11">
         <v>3000</v>
@@ -16071,7 +16076,7 @@
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B283" s="11">
         <v>3000</v>
@@ -16116,7 +16121,7 @@
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B284" s="11">
         <v>3000</v>
@@ -16161,7 +16166,7 @@
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B285" s="11">
         <v>3000</v>
@@ -16206,7 +16211,7 @@
     </row>
     <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B286" s="11">
         <v>3000</v>
@@ -16251,7 +16256,7 @@
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B287" s="11">
         <v>3000</v>
@@ -16296,7 +16301,7 @@
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B288" s="11">
         <v>3000</v>
@@ -16341,7 +16346,7 @@
     </row>
     <row r="289" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B289" s="11">
         <v>3000</v>
@@ -16386,7 +16391,7 @@
     </row>
     <row r="290" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B290" s="11">
         <v>3020</v>
@@ -16476,4 +16481,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/250407管配件重量表.xlsx
+++ b/templates/250407管配件重量表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q235A" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="335">
   <si>
     <t>直管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,7 +1002,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿墙套管墙内钢环</t>
+    <t>单法直管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>承插直管</t>
+  </si>
+  <si>
+    <t>插盘短管</t>
+  </si>
+  <si>
+    <t>直管</t>
+  </si>
+  <si>
+    <t>双法直管</t>
+  </si>
+  <si>
+    <t>双法直管-配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿墙套管-配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单法直管-配件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>承插直管-配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承盘短管</t>
+  </si>
+  <si>
+    <t>穿墙套管</t>
+  </si>
+  <si>
+    <t>穿墙套管-配件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1048,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,6 +1078,20 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1092,7 +1147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,6 +1186,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1509,7 @@
         <v>322</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -16485,14 +16546,1121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="3" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10">
+        <v>80</v>
+      </c>
+      <c r="C2" s="10">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>14.23</v>
+      </c>
+      <c r="E2">
+        <v>14.23</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="G2">
+        <v>14.23</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="I2">
+        <v>14.23</v>
+      </c>
+      <c r="J2">
+        <v>3.4</v>
+      </c>
+      <c r="K2">
+        <v>8.9</v>
+      </c>
+      <c r="L2" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="M2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N2" s="13">
+        <v>15.6</v>
+      </c>
+      <c r="O2">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>15.83</v>
+      </c>
+      <c r="E3">
+        <v>15.83</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G3">
+        <v>15.83</v>
+      </c>
+      <c r="H3" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="I3">
+        <v>15.83</v>
+      </c>
+      <c r="J3">
+        <v>4.3</v>
+      </c>
+      <c r="K3">
+        <v>9.9</v>
+      </c>
+      <c r="L3" s="13">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="O3">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10">
+        <v>125</v>
+      </c>
+      <c r="C4" s="10">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E4">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F4" s="13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G4">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="J4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10">
+        <v>150</v>
+      </c>
+      <c r="C5" s="10">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" s="13">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>7.1</v>
+      </c>
+      <c r="K5">
+        <v>15.6</v>
+      </c>
+      <c r="L5" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="M5">
+        <v>17.7</v>
+      </c>
+      <c r="N5" s="13">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10">
+        <v>200</v>
+      </c>
+      <c r="C6" s="10">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>32.33</v>
+      </c>
+      <c r="E6">
+        <v>32.33</v>
+      </c>
+      <c r="F6" s="13">
+        <v>19.199999999999996</v>
+      </c>
+      <c r="G6">
+        <v>32.33</v>
+      </c>
+      <c r="H6" s="13">
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="I6">
+        <v>32.33</v>
+      </c>
+      <c r="J6">
+        <v>10.3</v>
+      </c>
+      <c r="K6">
+        <v>25.8</v>
+      </c>
+      <c r="L6" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="M6">
+        <v>24.6</v>
+      </c>
+      <c r="N6" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="O6">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10">
+        <v>250</v>
+      </c>
+      <c r="C7" s="10">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>43.08</v>
+      </c>
+      <c r="E7">
+        <v>43.08</v>
+      </c>
+      <c r="F7" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="G7">
+        <v>43.08</v>
+      </c>
+      <c r="H7" s="13">
+        <v>12.8</v>
+      </c>
+      <c r="I7">
+        <v>43.08</v>
+      </c>
+      <c r="J7">
+        <v>14.2</v>
+      </c>
+      <c r="K7">
+        <v>35.1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>32.9</v>
+      </c>
+      <c r="N7" s="13">
+        <v>58.4</v>
+      </c>
+      <c r="O7">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10">
+        <v>300</v>
+      </c>
+      <c r="C8" s="10">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>53.83</v>
+      </c>
+      <c r="E8">
+        <v>53.83</v>
+      </c>
+      <c r="F8" s="13">
+        <v>28.199999999999996</v>
+      </c>
+      <c r="G8">
+        <v>53.83</v>
+      </c>
+      <c r="H8" s="13">
+        <v>14.099999999999998</v>
+      </c>
+      <c r="I8">
+        <v>53.83</v>
+      </c>
+      <c r="J8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K8">
+        <v>45.3</v>
+      </c>
+      <c r="L8" s="13">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>42.8</v>
+      </c>
+      <c r="N8" s="13">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O8">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10">
+        <v>350</v>
+      </c>
+      <c r="C9" s="10">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <v>67.08</v>
+      </c>
+      <c r="E9">
+        <v>67.08</v>
+      </c>
+      <c r="F9" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="G9">
+        <v>67.08</v>
+      </c>
+      <c r="H9" s="13">
+        <v>16.3</v>
+      </c>
+      <c r="I9">
+        <v>67.08</v>
+      </c>
+      <c r="J9">
+        <v>23.7</v>
+      </c>
+      <c r="K9">
+        <v>54.6</v>
+      </c>
+      <c r="L9" s="13">
+        <v>45</v>
+      </c>
+      <c r="M9">
+        <v>57.3</v>
+      </c>
+      <c r="N9" s="13">
+        <v>91.9</v>
+      </c>
+      <c r="O9">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
+        <v>400</v>
+      </c>
+      <c r="C10" s="11">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>80.33</v>
+      </c>
+      <c r="E10">
+        <v>80.33</v>
+      </c>
+      <c r="F10" s="13">
+        <v>40.400000000000006</v>
+      </c>
+      <c r="G10">
+        <v>80.33</v>
+      </c>
+      <c r="H10" s="13">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="I10">
+        <v>80.33</v>
+      </c>
+      <c r="J10">
+        <v>29.3</v>
+      </c>
+      <c r="K10">
+        <v>64.8</v>
+      </c>
+      <c r="L10" s="13">
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="N10" s="13">
+        <v>110.6</v>
+      </c>
+      <c r="O10">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="10">
+        <v>450</v>
+      </c>
+      <c r="C11" s="10">
+        <v>450</v>
+      </c>
+      <c r="D11">
+        <v>95.92</v>
+      </c>
+      <c r="E11">
+        <v>95.92</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43.599999999999994</v>
+      </c>
+      <c r="G11">
+        <v>95.92</v>
+      </c>
+      <c r="H11" s="13">
+        <v>21.799999999999997</v>
+      </c>
+      <c r="I11">
+        <v>95.92</v>
+      </c>
+      <c r="J11">
+        <v>32.32</v>
+      </c>
+      <c r="K11">
+        <v>78.25</v>
+      </c>
+      <c r="L11" s="13">
+        <v>70.5</v>
+      </c>
+      <c r="M11">
+        <v>80</v>
+      </c>
+      <c r="N11" s="13">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="O11">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10">
+        <v>500</v>
+      </c>
+      <c r="C12" s="10">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>111.5</v>
+      </c>
+      <c r="E12">
+        <v>111.5</v>
+      </c>
+      <c r="F12" s="13">
+        <v>61.599999999999994</v>
+      </c>
+      <c r="G12">
+        <v>111.5</v>
+      </c>
+      <c r="H12" s="13">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="I12">
+        <v>111.5</v>
+      </c>
+      <c r="J12">
+        <v>42.8</v>
+      </c>
+      <c r="K12">
+        <v>89.3</v>
+      </c>
+      <c r="L12" s="13">
+        <v>78</v>
+      </c>
+      <c r="M12">
+        <v>104.2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="O12">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10">
+        <v>600</v>
+      </c>
+      <c r="C13" s="10">
+        <v>600</v>
+      </c>
+      <c r="D13">
+        <v>147</v>
+      </c>
+      <c r="E13">
+        <v>147</v>
+      </c>
+      <c r="F13" s="13">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>147</v>
+      </c>
+      <c r="H13" s="13">
+        <v>40.5</v>
+      </c>
+      <c r="I13">
+        <v>147</v>
+      </c>
+      <c r="J13">
+        <v>59.3</v>
+      </c>
+      <c r="K13">
+        <v>119.8</v>
+      </c>
+      <c r="L13" s="13">
+        <v>108</v>
+      </c>
+      <c r="M13">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="N13" s="13">
+        <v>201</v>
+      </c>
+      <c r="O13">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="11">
+        <v>700</v>
+      </c>
+      <c r="C14" s="11">
+        <v>700</v>
+      </c>
+      <c r="D14">
+        <v>187.17</v>
+      </c>
+      <c r="E14">
+        <v>187.17</v>
+      </c>
+      <c r="F14" s="13">
+        <v>109.59999999999997</v>
+      </c>
+      <c r="G14">
+        <v>187.17</v>
+      </c>
+      <c r="H14" s="13">
+        <v>54.799999999999983</v>
+      </c>
+      <c r="I14">
+        <v>187.17</v>
+      </c>
+      <c r="J14">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="K14">
+        <v>175.5</v>
+      </c>
+      <c r="L14" s="13">
+        <v>144</v>
+      </c>
+      <c r="M14">
+        <v>192</v>
+      </c>
+      <c r="N14" s="13">
+        <v>255.2</v>
+      </c>
+      <c r="O14">
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10">
+        <v>800</v>
+      </c>
+      <c r="C15" s="10">
+        <v>800</v>
+      </c>
+      <c r="D15">
+        <v>232.33</v>
+      </c>
+      <c r="E15">
+        <v>232.33</v>
+      </c>
+      <c r="F15" s="13">
+        <v>128.59999999999997</v>
+      </c>
+      <c r="G15">
+        <v>232.33</v>
+      </c>
+      <c r="H15" s="13">
+        <v>64.299999999999983</v>
+      </c>
+      <c r="I15">
+        <v>232.33</v>
+      </c>
+      <c r="J15">
+        <v>102.6</v>
+      </c>
+      <c r="K15">
+        <v>226</v>
+      </c>
+      <c r="L15" s="13">
+        <v>189</v>
+      </c>
+      <c r="M15">
+        <v>250.6</v>
+      </c>
+      <c r="N15" s="13">
+        <v>315.7</v>
+      </c>
+      <c r="O15">
+        <v>42.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="11">
+        <v>900</v>
+      </c>
+      <c r="C16" s="11">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>284.25</v>
+      </c>
+      <c r="E16">
+        <v>284.25</v>
+      </c>
+      <c r="F16" s="13">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="G16">
+        <v>284.25</v>
+      </c>
+      <c r="H16" s="13">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I16">
+        <v>284.25</v>
+      </c>
+      <c r="J16">
+        <v>129.9</v>
+      </c>
+      <c r="K16">
+        <v>272</v>
+      </c>
+      <c r="L16" s="13">
+        <v>235</v>
+      </c>
+      <c r="M16">
+        <v>316.2</v>
+      </c>
+      <c r="N16" s="13">
+        <v>381.9</v>
+      </c>
+      <c r="O16">
+        <v>52.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>336.17</v>
+      </c>
+      <c r="E17">
+        <v>336.17</v>
+      </c>
+      <c r="F17" s="13">
+        <v>241.80000000000007</v>
+      </c>
+      <c r="G17">
+        <v>336.17</v>
+      </c>
+      <c r="H17" s="13">
+        <v>120.90000000000003</v>
+      </c>
+      <c r="I17">
+        <v>336.17</v>
+      </c>
+      <c r="J17">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="K17">
+        <v>328</v>
+      </c>
+      <c r="L17" s="13">
+        <v>293</v>
+      </c>
+      <c r="M17">
+        <v>390.2</v>
+      </c>
+      <c r="N17" s="13">
+        <v>454.1</v>
+      </c>
+      <c r="O17">
+        <v>67.150000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D18">
+        <v>459.67</v>
+      </c>
+      <c r="E18">
+        <v>459.67</v>
+      </c>
+      <c r="F18" s="13">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="G18">
+        <v>459.67</v>
+      </c>
+      <c r="H18" s="13">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="I18">
+        <v>459.67</v>
+      </c>
+      <c r="J18">
+        <v>237.7</v>
+      </c>
+      <c r="K18">
+        <v>456</v>
+      </c>
+      <c r="L18" s="13">
+        <v>456</v>
+      </c>
+      <c r="M18">
+        <v>572.6</v>
+      </c>
+      <c r="N18" s="13">
+        <v>616.9</v>
+      </c>
+      <c r="O18">
+        <v>102.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1400</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1400</v>
+      </c>
+      <c r="D19">
+        <v>593.83000000000004</v>
+      </c>
+      <c r="E19">
+        <v>593.83000000000004</v>
+      </c>
+      <c r="F19" s="13">
+        <v>402.80000000000007</v>
+      </c>
+      <c r="G19">
+        <v>593.83000000000004</v>
+      </c>
+      <c r="H19" s="13">
+        <v>201.40000000000003</v>
+      </c>
+      <c r="I19">
+        <v>593.83000000000004</v>
+      </c>
+      <c r="J19">
+        <v>279.3</v>
+      </c>
+      <c r="K19">
+        <v>664</v>
+      </c>
+      <c r="L19" s="13">
+        <v>654</v>
+      </c>
+      <c r="M19">
+        <v>732</v>
+      </c>
+      <c r="N19" s="13">
+        <v>803.7</v>
+      </c>
+      <c r="O19">
+        <v>144.11000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D20">
+        <v>669.81</v>
+      </c>
+      <c r="E20">
+        <v>669.81</v>
+      </c>
+      <c r="F20" s="13">
+        <v>412.79999999999995</v>
+      </c>
+      <c r="G20">
+        <v>669.81</v>
+      </c>
+      <c r="H20" s="13">
+        <v>206.39999999999998</v>
+      </c>
+      <c r="I20">
+        <v>669.81</v>
+      </c>
+      <c r="J20">
+        <v>314.8</v>
+      </c>
+      <c r="K20">
+        <v>812</v>
+      </c>
+      <c r="L20" s="13">
+        <v>773</v>
+      </c>
+      <c r="M20">
+        <v>829</v>
+      </c>
+      <c r="N20" s="13">
+        <v>905.8</v>
+      </c>
+      <c r="O20">
+        <v>171.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1600</v>
+      </c>
+      <c r="D21">
+        <v>750.13</v>
+      </c>
+      <c r="E21">
+        <v>750.13</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>750.13</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>750.13</v>
+      </c>
+      <c r="J21">
+        <v>375.4</v>
+      </c>
+      <c r="K21">
+        <v>922</v>
+      </c>
+      <c r="L21" s="13">
+        <v>887</v>
+      </c>
+      <c r="M21">
+        <v>1002.4</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1013.9</v>
+      </c>
+      <c r="O21">
+        <v>200.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D22">
+        <v>927.38</v>
+      </c>
+      <c r="E22">
+        <v>927.38</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>927.38</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>927.38</v>
+      </c>
+      <c r="J22">
+        <v>422.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D23">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="E23">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="J23">
+        <v>469.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D24">
+        <v>1574.75</v>
+      </c>
+      <c r="E24">
+        <v>1574.75</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1574.75</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1574.75</v>
+      </c>
+      <c r="J24" s="14">
+        <f>+B24/B23*J23</f>
+        <v>516.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2600</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2600</v>
+      </c>
+      <c r="D25">
+        <v>1830.13</v>
+      </c>
+      <c r="E25">
+        <v>1830.13</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1830.13</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1830.13</v>
+      </c>
+      <c r="J25" s="14">
+        <f>+B25/B23*J23</f>
+        <v>610.09</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/250407管配件重量表.xlsx
+++ b/templates/250407管配件重量表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="352">
   <si>
     <t>直管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,6 +1042,74 @@
   <si>
     <t>穿墙套管-配件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90°承口弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90°承口弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45°承口弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45°承口弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22°30′承口弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22°30′承口弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11°15′承口弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11°15′承口弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90°法兰弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90°法兰弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45°法兰弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45°法兰弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22°30′法兰弯头A型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22°30′法兰弯头B型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲法兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>承堵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1147,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,10 +1255,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16546,19 +16629,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="9" style="9"/>
+    <col min="4" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -16568,44 +16652,95 @@
       <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="13" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -16615,44 +16750,93 @@
       <c r="C2" s="10">
         <v>80</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>14.23</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="13">
         <v>14.23</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="17">
         <v>5.8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <v>14.23</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="17">
         <v>2.9</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="13">
         <v>14.23</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <v>3.4</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="13">
         <v>8.9</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="17">
         <v>7.4</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="17">
         <v>15.6</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="13">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="R2" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="S2" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="T2" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="U2" s="13">
+        <v>6</v>
+      </c>
+      <c r="V2" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="W2" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="X2" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="AF2" s="13"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -16662,44 +16846,95 @@
       <c r="C3" s="10">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>15.83</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>15.83</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="17">
         <v>6.6</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>15.83</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <v>3.3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="13">
         <v>15.83</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="13">
         <v>4.3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="13">
         <v>9.9</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="17">
         <v>9</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="13">
         <v>12.2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="17">
         <v>19.5</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="13">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R3" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="S3" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="T3" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U3" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="V3" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="W3" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="X3" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -16709,29 +16944,51 @@
       <c r="C4" s="10">
         <v>125</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>19.920000000000002</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>19.920000000000002</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>19.920000000000002</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="13">
         <v>19.920000000000002</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="13">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -16741,44 +16998,95 @@
       <c r="C5" s="10">
         <v>150</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>24</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>24</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="17">
         <v>13.600000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <v>24</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="17">
         <v>6.8000000000000007</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="13">
         <v>24</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="13">
         <v>7.1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
         <v>15.6</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="17">
         <v>14.2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="13">
         <v>17.7</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="17">
         <v>31</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="13">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>19</v>
+      </c>
+      <c r="R5" s="13">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S5" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="T5" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="U5" s="13">
+        <v>14.4</v>
+      </c>
+      <c r="V5" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="W5" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="X5" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>20.7</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>19.2</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -16788,44 +17096,95 @@
       <c r="C6" s="10">
         <v>200</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>32.33</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <v>32.33</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="17">
         <v>19.199999999999996</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <v>32.33</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="17">
         <v>9.5999999999999979</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="13">
         <v>32.33</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="13">
         <v>10.3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="13">
         <v>25.8</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="17">
         <v>20.5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="13">
         <v>24.6</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="17">
         <v>43.9</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="13">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="13">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>30.6</v>
+      </c>
+      <c r="R6" s="13">
+        <v>27</v>
+      </c>
+      <c r="S6" s="13">
+        <v>24.6</v>
+      </c>
+      <c r="T6" s="13">
+        <v>24</v>
+      </c>
+      <c r="U6" s="13">
+        <v>21.6</v>
+      </c>
+      <c r="V6" s="13">
+        <v>22</v>
+      </c>
+      <c r="W6" s="13">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X6" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>32.1</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>27.5</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>28.6</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>27.9</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -16835,44 +17194,95 @@
       <c r="C7" s="10">
         <v>250</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>43.08</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>43.08</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="17">
         <v>25.6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>43.08</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="17">
         <v>12.8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="13">
         <v>43.08</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="13">
         <v>14.2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="13">
         <v>35.1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="17">
         <v>28</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="13">
         <v>32.9</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="17">
         <v>58.4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="13">
         <v>6.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="13">
+        <v>48.5</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>44.9</v>
+      </c>
+      <c r="R7" s="13">
+        <v>38.5</v>
+      </c>
+      <c r="S7" s="13">
+        <v>34.9</v>
+      </c>
+      <c r="T7" s="13">
+        <v>33.5</v>
+      </c>
+      <c r="U7" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="V7" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="W7" s="13">
+        <v>26.9</v>
+      </c>
+      <c r="X7" s="13">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>55.9</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>56.9</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -16882,44 +17292,95 @@
       <c r="C8" s="10">
         <v>300</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="13">
         <v>53.83</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="13">
         <v>53.83</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="17">
         <v>28.199999999999996</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>53.83</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="17">
         <v>14.099999999999998</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="13">
         <v>53.83</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="13">
         <v>18.600000000000001</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="13">
         <v>45.3</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="17">
         <v>37</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="13">
         <v>42.8</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="17">
         <v>74.400000000000006</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="13">
         <v>8.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="13">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>62.9</v>
+      </c>
+      <c r="R8" s="13">
+        <v>53</v>
+      </c>
+      <c r="S8" s="13">
+        <v>47.9</v>
+      </c>
+      <c r="T8" s="13">
+        <v>44.5</v>
+      </c>
+      <c r="U8" s="13">
+        <v>39.4</v>
+      </c>
+      <c r="V8" s="13">
+        <v>40.5</v>
+      </c>
+      <c r="W8" s="13">
+        <v>35.4</v>
+      </c>
+      <c r="X8" s="13">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>70.7</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>76</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>76.7</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>78.8</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>79.5</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -16929,44 +17390,95 @@
       <c r="C9" s="10">
         <v>350</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="13">
         <v>67.08</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="13">
         <v>67.08</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="17">
         <v>32.6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>67.08</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="17">
         <v>16.3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="13">
         <v>67.08</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="13">
         <v>23.7</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="13">
         <v>54.6</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="17">
         <v>45</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="13">
         <v>57.3</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="17">
         <v>91.9</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="13">
         <v>10.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="13">
+        <v>97.5</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>90.4</v>
+      </c>
+      <c r="R9" s="13">
+        <v>70</v>
+      </c>
+      <c r="S9" s="13">
+        <v>62.9</v>
+      </c>
+      <c r="T9" s="13">
+        <v>58</v>
+      </c>
+      <c r="U9" s="13">
+        <v>50.9</v>
+      </c>
+      <c r="V9" s="13">
+        <v>52</v>
+      </c>
+      <c r="W9" s="13">
+        <v>44.9</v>
+      </c>
+      <c r="X9" s="13">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>92.5</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>78</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>80.5</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>77.3</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>79.8</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>29.5</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>35.5</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -16976,44 +17488,95 @@
       <c r="C10" s="11">
         <v>400</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="13">
         <v>80.33</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="13">
         <v>80.33</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>40.400000000000006</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>80.33</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="17">
         <v>20.200000000000003</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="13">
         <v>80.33</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="13">
         <v>29.3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="13">
         <v>64.8</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="17">
         <v>55</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="13">
         <v>71.599999999999994</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="17">
         <v>110.6</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="13">
         <v>13.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="13">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>114.7</v>
+      </c>
+      <c r="R10" s="13">
+        <v>89</v>
+      </c>
+      <c r="S10" s="13">
+        <v>79.7</v>
+      </c>
+      <c r="T10" s="13">
+        <v>74</v>
+      </c>
+      <c r="U10" s="13">
+        <v>64.7</v>
+      </c>
+      <c r="V10" s="13">
+        <v>65</v>
+      </c>
+      <c r="W10" s="13">
+        <v>55.7</v>
+      </c>
+      <c r="X10" s="13">
+        <v>116</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>119.7</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>96</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>99.7</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>96.7</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>100.4</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>36.5</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -17023,44 +17586,95 @@
       <c r="C11" s="10">
         <v>450</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>95.92</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="13">
         <v>95.92</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>43.599999999999994</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <v>95.92</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="17">
         <v>21.799999999999997</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="13">
         <v>95.92</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="13">
         <v>32.32</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="13">
         <v>78.25</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="17">
         <v>70.5</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="13">
         <v>80</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="17">
         <v>130.80000000000001</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="13">
         <v>15.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="13">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>147.5</v>
+      </c>
+      <c r="R11" s="13">
+        <v>117</v>
+      </c>
+      <c r="S11" s="13">
+        <v>108.5</v>
+      </c>
+      <c r="T11" s="13">
+        <v>95</v>
+      </c>
+      <c r="U11" s="13">
+        <v>86.5</v>
+      </c>
+      <c r="V11" s="13">
+        <v>83.5</v>
+      </c>
+      <c r="W11" s="13">
+        <v>75</v>
+      </c>
+      <c r="X11" s="13">
+        <v>147</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>150.5</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>120</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>123.5</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>122</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>125.5</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>46.5</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>54</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -17070,44 +17684,95 @@
       <c r="C12" s="10">
         <v>500</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>111.5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="13">
         <v>111.5</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="17">
         <v>61.599999999999994</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>111.5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="17">
         <v>30.799999999999997</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="13">
         <v>111.5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="13">
         <v>42.8</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="13">
         <v>89.3</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="17">
         <v>78</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="13">
         <v>104.2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="17">
         <v>152.80000000000001</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="13">
         <v>18.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="13">
+        <v>193</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>177.8</v>
+      </c>
+      <c r="R12" s="13">
+        <v>139</v>
+      </c>
+      <c r="S12" s="13">
+        <v>123.8</v>
+      </c>
+      <c r="T12" s="13">
+        <v>111</v>
+      </c>
+      <c r="U12" s="13">
+        <v>95.8</v>
+      </c>
+      <c r="V12" s="13">
+        <v>96</v>
+      </c>
+      <c r="W12" s="13">
+        <v>80.8</v>
+      </c>
+      <c r="X12" s="13">
+        <v>181</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>186.8</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>145</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>146</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>56</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>67</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -17117,44 +17782,95 @@
       <c r="C13" s="10">
         <v>600</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <v>147</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="13">
         <v>147</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="17">
         <v>81</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>147</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="17">
         <v>40.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="13">
         <v>147</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="13">
         <v>59.3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <v>119.8</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="17">
         <v>108</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="13">
         <v>146.19999999999999</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="17">
         <v>201</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="13">
         <v>25.16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="13">
+        <v>280</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="R13" s="13">
+        <v>202</v>
+      </c>
+      <c r="S13" s="13">
+        <v>179.1</v>
+      </c>
+      <c r="T13" s="13">
+        <v>157</v>
+      </c>
+      <c r="U13" s="13">
+        <v>134.1</v>
+      </c>
+      <c r="V13" s="13">
+        <v>134</v>
+      </c>
+      <c r="W13" s="13">
+        <v>111.1</v>
+      </c>
+      <c r="X13" s="13">
+        <v>272</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>212</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>217.6</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>215.2</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>220.8</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>85</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>96.5</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -17164,44 +17880,93 @@
       <c r="C14" s="11">
         <v>700</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <v>187.17</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="13">
         <v>187.17</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>109.59999999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>187.17</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="17">
         <v>54.799999999999983</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="13">
         <v>187.17</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="13">
         <v>79.099999999999994</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="13">
         <v>175.5</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="17">
         <v>144</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="13">
         <v>192</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="17">
         <v>255.2</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="13">
         <v>33.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="13">
+        <v>455</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>422.1</v>
+      </c>
+      <c r="R14" s="13">
+        <v>282</v>
+      </c>
+      <c r="S14" s="13">
+        <v>249.1</v>
+      </c>
+      <c r="T14" s="13">
+        <v>217</v>
+      </c>
+      <c r="U14" s="13">
+        <v>184.1</v>
+      </c>
+      <c r="V14" s="13">
+        <v>181</v>
+      </c>
+      <c r="W14" s="13">
+        <v>148.1</v>
+      </c>
+      <c r="X14" s="13">
+        <v>386</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>391.7</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>296</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>301.7</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>199.4</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>123</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>135</v>
+      </c>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -17211,44 +17976,93 @@
       <c r="C15" s="10">
         <v>800</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="13">
         <v>232.33</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="13">
         <v>232.33</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="17">
         <v>128.59999999999997</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>232.33</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="17">
         <v>64.299999999999983</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="13">
         <v>232.33</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="13">
         <v>102.6</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
         <v>226</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="17">
         <v>189</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="13">
         <v>250.6</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="17">
         <v>315.7</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="13">
         <v>42.29</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="13">
+        <v>605</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>559.5</v>
+      </c>
+      <c r="R15" s="13">
+        <v>378</v>
+      </c>
+      <c r="S15" s="13">
+        <v>332.5</v>
+      </c>
+      <c r="T15" s="13">
+        <v>287</v>
+      </c>
+      <c r="U15" s="13">
+        <v>241.5</v>
+      </c>
+      <c r="V15" s="13">
+        <v>239</v>
+      </c>
+      <c r="W15" s="13">
+        <v>193.5</v>
+      </c>
+      <c r="X15" s="13">
+        <v>533</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>535.29999999999995</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>403</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>405.3</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>408.4</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>410.7</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>172</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>182</v>
+      </c>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -17258,44 +18072,93 @@
       <c r="C16" s="11">
         <v>900</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>284.25</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="13">
         <v>284.25</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="17">
         <v>162.80000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>284.25</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="17">
         <v>81.400000000000006</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="13">
         <v>284.25</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="13">
         <v>129.9</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <v>272</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="17">
         <v>235</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="13">
         <v>316.2</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="17">
         <v>381.9</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="13">
         <v>52.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="13">
+        <v>813</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>769.5</v>
+      </c>
+      <c r="R16" s="13">
+        <v>496</v>
+      </c>
+      <c r="S16" s="13">
+        <v>452.5</v>
+      </c>
+      <c r="T16" s="13">
+        <v>373</v>
+      </c>
+      <c r="U16" s="13">
+        <v>329.5</v>
+      </c>
+      <c r="V16" s="13">
+        <v>305</v>
+      </c>
+      <c r="W16" s="13">
+        <v>261.5</v>
+      </c>
+      <c r="X16" s="13">
+        <v>698</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>720.1</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>519</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>541.1</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>525.6</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>547.70000000000005</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>224</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>231</v>
+      </c>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -17305,44 +18168,93 @@
       <c r="C17" s="11">
         <v>1000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="13">
         <v>336.17</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="13">
         <v>336.17</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="17">
         <v>241.80000000000007</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>336.17</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="17">
         <v>120.90000000000003</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="13">
         <v>336.17</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="13">
         <v>161.30000000000001</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
         <v>328</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="17">
         <v>293</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="13">
         <v>390.2</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="17">
         <v>454.1</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="13">
         <v>67.150000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="13">
+        <v>1045</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>986.4</v>
+      </c>
+      <c r="R17" s="13">
+        <v>635</v>
+      </c>
+      <c r="S17" s="13">
+        <v>576.4</v>
+      </c>
+      <c r="T17" s="13">
+        <v>470</v>
+      </c>
+      <c r="U17" s="13">
+        <v>411.4</v>
+      </c>
+      <c r="V17" s="13">
+        <v>381</v>
+      </c>
+      <c r="W17" s="13">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="X17" s="13">
+        <v>907</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>928.3</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>668</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>689.3</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>677</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>698.3</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>293</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -17352,44 +18264,93 @@
       <c r="C18" s="11">
         <v>1200</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <v>459.67</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="13">
         <v>459.67</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="17">
         <v>295.60000000000002</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>459.67</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="17">
         <v>147.80000000000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="13">
         <v>459.67</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="13">
         <v>237.7</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <v>456</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="17">
         <v>456</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="13">
         <v>572.6</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="17">
         <v>616.9</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="13">
         <v>102.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="13">
+        <v>1663</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1564.8</v>
+      </c>
+      <c r="R18" s="13">
+        <v>986</v>
+      </c>
+      <c r="S18" s="13">
+        <v>887.8</v>
+      </c>
+      <c r="T18" s="13">
+        <v>716</v>
+      </c>
+      <c r="U18" s="13">
+        <v>617.79999999999995</v>
+      </c>
+      <c r="V18" s="13">
+        <v>568</v>
+      </c>
+      <c r="W18" s="13">
+        <v>469.8</v>
+      </c>
+      <c r="X18" s="13">
+        <v>1452</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>1470.6</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>1050</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>1068.5999999999999</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>1053</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>1070.7</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>575</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>457</v>
+      </c>
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -17399,44 +18360,93 @@
       <c r="C19" s="11">
         <v>1400</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="13">
         <v>593.83000000000004</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="13">
         <v>593.83000000000004</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="17">
         <v>402.80000000000007</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13">
         <v>593.83000000000004</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="17">
         <v>201.40000000000003</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="13">
         <v>593.83000000000004</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="13">
         <v>279.3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
         <v>664</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="17">
         <v>654</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="13">
         <v>732</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="17">
         <v>803.7</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="13">
         <v>144.11000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="13">
+        <v>1949</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1887.7</v>
+      </c>
+      <c r="R19" s="13">
+        <v>1273</v>
+      </c>
+      <c r="S19" s="13">
+        <v>1211.7</v>
+      </c>
+      <c r="T19" s="13">
+        <v>933</v>
+      </c>
+      <c r="U19" s="13">
+        <v>871.7</v>
+      </c>
+      <c r="V19" s="13">
+        <v>747</v>
+      </c>
+      <c r="W19" s="13">
+        <v>685.7</v>
+      </c>
+      <c r="X19" s="13">
+        <v>1948</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>2018.2</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>1388</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>1458.2</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>1497.2</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>1567.4</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>739</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>646</v>
+      </c>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -17446,44 +18456,99 @@
       <c r="C20" s="11">
         <v>1500</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <v>669.81</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="13">
         <v>669.81</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="17">
         <v>412.79999999999995</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="13">
         <v>669.81</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="17">
         <v>206.39999999999998</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="13">
         <v>669.81</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="13">
         <v>314.8</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="13">
         <v>812</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="17">
         <v>773</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="13">
         <v>829</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="17">
         <v>905.8</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="13">
         <v>171.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="13">
+        <v>2276</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>2206.9</v>
+      </c>
+      <c r="R20" s="18">
+        <f>+Q20/Q19*R19</f>
+        <v>1488.2575091381045</v>
+      </c>
+      <c r="S20" s="18">
+        <f>+R20/R19*S19</f>
+        <v>1416.5920061450443</v>
+      </c>
+      <c r="T20" s="18">
+        <f>+S20/S19*T19</f>
+        <v>1090.7653228796948</v>
+      </c>
+      <c r="U20" s="18">
+        <f>+T20/T19*U19</f>
+        <v>1019.0998198866346</v>
+      </c>
+      <c r="V20" s="18">
+        <f>+U20/U19*V19</f>
+        <v>873.31371510303541</v>
+      </c>
+      <c r="W20" s="18">
+        <f>+V20/V19*W19</f>
+        <v>801.64821210997513</v>
+      </c>
+      <c r="X20" s="13">
+        <v>2273</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>2317.3000000000002</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1677</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>1721.3</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>1838</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>1882.3</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>1066</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>763</v>
+      </c>
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -17493,44 +18558,93 @@
       <c r="C21" s="11">
         <v>1600</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="13">
         <v>750.13</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="13">
         <v>750.13</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="17">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="13">
         <v>750.13</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="13">
         <v>750.13</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="13">
         <v>375.4</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="13">
         <v>922</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="17">
         <v>887</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="13">
         <v>1002.4</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="17">
         <v>1013.9</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="13">
         <v>200.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="13">
+        <v>2626</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>2525.6999999999998</v>
+      </c>
+      <c r="R21" s="13">
+        <v>1740</v>
+      </c>
+      <c r="S21" s="13">
+        <v>1639.7</v>
+      </c>
+      <c r="T21" s="13">
+        <v>1259</v>
+      </c>
+      <c r="U21" s="13">
+        <v>1158.7</v>
+      </c>
+      <c r="V21" s="13">
+        <v>1007</v>
+      </c>
+      <c r="W21" s="13">
+        <v>906.7</v>
+      </c>
+      <c r="X21" s="13">
+        <v>2663</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>2731.7</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>1915</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>1983.7</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>2119.1999999999998</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>2187.9</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>1239</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>906</v>
+      </c>
+      <c r="AF21" s="13"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -17540,29 +18654,51 @@
       <c r="C22" s="11">
         <v>1800</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="13">
         <v>927.38</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="13">
         <v>927.38</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13">
         <v>927.38</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="13">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="13">
         <v>927.38</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="13">
         <v>422.37</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -17572,29 +18708,51 @@
       <c r="C23" s="11">
         <v>2000</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="13">
         <v>1123.8800000000001</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="13">
         <v>1123.8800000000001</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="17">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="13">
         <v>1123.8800000000001</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="13">
         <v>1123.8800000000001</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="13">
         <v>469.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -17604,30 +18762,52 @@
       <c r="C24" s="11">
         <v>2200</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="13">
         <v>1574.75</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="13">
         <v>1574.75</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="17">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="13">
         <v>1574.75</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="19">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="13">
         <v>1574.75</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="19">
         <f>+B24/B23*J23</f>
         <v>516.23</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -17637,28 +18817,50 @@
       <c r="C25" s="10">
         <v>2600</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="13">
         <v>1830.13</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="13">
         <v>1830.13</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="13">
         <v>1830.13</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="19">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="13">
         <v>1830.13</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="19">
         <f>+B25/B23*J23</f>
         <v>610.09</v>
       </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/templates/250407管配件重量表.xlsx
+++ b/templates/250407管配件重量表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="355">
   <si>
     <t>直管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,6 +1109,18 @@
   </si>
   <si>
     <t>承堵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>承口</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1174,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1215,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1294,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16629,20 +16655,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="9" style="9"/>
-    <col min="4" max="15" width="9" customWidth="1"/>
+    <col min="4" max="6" width="9" style="20"/>
+    <col min="7" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -16652,95 +16679,104 @@
       <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -16750,93 +16786,102 @@
       <c r="C2" s="10">
         <v>80</v>
       </c>
-      <c r="D2" s="13">
-        <v>14.23</v>
-      </c>
-      <c r="E2" s="13">
-        <v>14.23</v>
-      </c>
-      <c r="F2" s="17">
-        <v>5.8</v>
+      <c r="D2" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="E2" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2</v>
       </c>
       <c r="G2" s="13">
         <v>14.23</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="13">
+        <v>14.23</v>
+      </c>
+      <c r="I2" s="17">
+        <v>5.8</v>
+      </c>
+      <c r="J2" s="13">
+        <v>14.23</v>
+      </c>
+      <c r="K2" s="17">
         <v>2.9</v>
       </c>
-      <c r="I2" s="13">
+      <c r="L2" s="13">
         <v>14.23</v>
       </c>
-      <c r="J2" s="13">
+      <c r="M2" s="13">
         <v>3.4</v>
       </c>
-      <c r="K2" s="13">
+      <c r="N2" s="13">
         <v>8.9</v>
       </c>
-      <c r="L2" s="17">
+      <c r="O2" s="17">
         <v>7.4</v>
       </c>
-      <c r="M2" s="13">
+      <c r="P2" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N2" s="17">
+      <c r="Q2" s="17">
         <v>15.6</v>
       </c>
-      <c r="O2" s="13">
+      <c r="R2" s="13">
         <v>2.11</v>
       </c>
-      <c r="P2" s="13">
+      <c r="S2" s="13">
         <v>8.6</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>7.3</v>
-      </c>
-      <c r="R2" s="13">
-        <v>7.7</v>
-      </c>
-      <c r="S2" s="13">
-        <v>6.4</v>
       </c>
       <c r="T2" s="13">
         <v>7.3</v>
       </c>
       <c r="U2" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="V2" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="W2" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="X2" s="13">
         <v>6</v>
       </c>
-      <c r="V2" s="13">
+      <c r="Y2" s="13">
         <v>7.1</v>
       </c>
-      <c r="W2" s="13">
+      <c r="Z2" s="13">
         <v>5.8</v>
       </c>
-      <c r="X2" s="13">
+      <c r="AA2" s="13">
         <v>9.6</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="AB2" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="AC2" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AD2" s="13">
         <v>8.5</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AE2" s="13">
         <v>9.4</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AF2" s="13">
         <v>8.6</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AG2" s="13">
         <v>3.5</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AH2" s="13">
         <v>5.2</v>
       </c>
-      <c r="AF2" s="13"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -16846,95 +16891,104 @@
       <c r="C3" s="10">
         <v>100</v>
       </c>
-      <c r="D3" s="13">
-        <v>15.83</v>
-      </c>
-      <c r="E3" s="13">
-        <v>15.83</v>
-      </c>
-      <c r="F3" s="17">
-        <v>6.6</v>
+      <c r="D3" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2</v>
       </c>
       <c r="G3" s="13">
         <v>15.83</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
+        <v>15.83</v>
+      </c>
+      <c r="I3" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="J3" s="13">
+        <v>15.83</v>
+      </c>
+      <c r="K3" s="17">
         <v>3.3</v>
       </c>
-      <c r="I3" s="13">
+      <c r="L3" s="13">
         <v>15.83</v>
       </c>
-      <c r="J3" s="13">
+      <c r="M3" s="13">
         <v>4.3</v>
       </c>
-      <c r="K3" s="13">
+      <c r="N3" s="13">
         <v>9.9</v>
       </c>
-      <c r="L3" s="17">
+      <c r="O3" s="17">
         <v>9</v>
       </c>
-      <c r="M3" s="13">
+      <c r="P3" s="13">
         <v>12.2</v>
       </c>
-      <c r="N3" s="17">
+      <c r="Q3" s="17">
         <v>19.5</v>
       </c>
-      <c r="O3" s="13">
+      <c r="R3" s="13">
         <v>2.63</v>
       </c>
-      <c r="P3" s="13">
+      <c r="S3" s="13">
         <v>11.4</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="T3" s="13">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R3" s="13">
+      <c r="U3" s="13">
         <v>10.1</v>
       </c>
-      <c r="S3" s="13">
+      <c r="V3" s="13">
         <v>8.5</v>
       </c>
-      <c r="T3" s="13">
+      <c r="W3" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="U3" s="13">
+      <c r="X3" s="13">
         <v>7.7</v>
       </c>
-      <c r="V3" s="13">
+      <c r="Y3" s="13">
         <v>8.9</v>
       </c>
-      <c r="W3" s="13">
+      <c r="Z3" s="13">
         <v>7.3</v>
       </c>
-      <c r="X3" s="13">
+      <c r="AA3" s="13">
         <v>11.9</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="AB3" s="13">
         <v>11.3</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="AC3" s="13">
         <v>11.3</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AD3" s="13">
         <v>10.7</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AE3" s="13">
         <v>11.5</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AF3" s="13">
         <v>10.9</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AG3" s="13">
         <v>4.3</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AH3" s="13">
         <v>6.2</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AI3" s="13">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -16944,30 +16998,27 @@
       <c r="C4" s="10">
         <v>125</v>
       </c>
-      <c r="D4" s="13">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="E4" s="13">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="F4" s="17">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="G4" s="13">
         <v>19.920000000000002</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="13">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I4" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J4" s="13">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="K4" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I4" s="13">
+      <c r="L4" s="13">
         <v>19.920000000000002</v>
       </c>
-      <c r="J4" s="13">
+      <c r="M4" s="13">
         <v>5.7</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -16987,8 +17038,11 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -16998,95 +17052,104 @@
       <c r="C5" s="10">
         <v>150</v>
       </c>
-      <c r="D5" s="13">
-        <v>24</v>
-      </c>
-      <c r="E5" s="13">
-        <v>24</v>
-      </c>
-      <c r="F5" s="17">
-        <v>13.600000000000001</v>
+      <c r="D5" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3</v>
       </c>
       <c r="G5" s="13">
         <v>24</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
+        <v>24</v>
+      </c>
+      <c r="I5" s="17">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="J5" s="13">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17">
         <v>6.8000000000000007</v>
       </c>
-      <c r="I5" s="13">
+      <c r="L5" s="13">
         <v>24</v>
       </c>
-      <c r="J5" s="13">
+      <c r="M5" s="13">
         <v>7.1</v>
       </c>
-      <c r="K5" s="13">
+      <c r="N5" s="13">
         <v>15.6</v>
       </c>
-      <c r="L5" s="17">
+      <c r="O5" s="17">
         <v>14.2</v>
       </c>
-      <c r="M5" s="13">
+      <c r="P5" s="13">
         <v>17.7</v>
       </c>
-      <c r="N5" s="17">
+      <c r="Q5" s="17">
         <v>31</v>
       </c>
-      <c r="O5" s="13">
+      <c r="R5" s="13">
         <v>3.82</v>
       </c>
-      <c r="P5" s="13">
+      <c r="S5" s="13">
         <v>20.5</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="T5" s="13">
         <v>19</v>
       </c>
-      <c r="R5" s="13">
+      <c r="U5" s="13">
         <v>17.399999999999999</v>
       </c>
-      <c r="S5" s="13">
+      <c r="V5" s="13">
         <v>15.9</v>
       </c>
-      <c r="T5" s="13">
+      <c r="W5" s="13">
         <v>15.9</v>
       </c>
-      <c r="U5" s="13">
+      <c r="X5" s="13">
         <v>14.4</v>
       </c>
-      <c r="V5" s="13">
+      <c r="Y5" s="13">
         <v>14.8</v>
       </c>
-      <c r="W5" s="13">
+      <c r="Z5" s="13">
         <v>13.3</v>
       </c>
-      <c r="X5" s="13">
+      <c r="AA5" s="13">
         <v>20</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="AB5" s="13">
         <v>20.7</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="AC5" s="13">
         <v>18.5</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AD5" s="13">
         <v>19.2</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AE5" s="13">
         <v>18.7</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AF5" s="13">
         <v>19.399999999999999</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AG5" s="13">
         <v>7.3</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AH5" s="13">
         <v>10.1</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AI5" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -17096,95 +17159,104 @@
       <c r="C6" s="10">
         <v>200</v>
       </c>
-      <c r="D6" s="13">
-        <v>32.33</v>
-      </c>
-      <c r="E6" s="13">
-        <v>32.33</v>
-      </c>
-      <c r="F6" s="17">
-        <v>19.199999999999996</v>
+      <c r="D6" s="21">
+        <v>10.3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4</v>
       </c>
       <c r="G6" s="13">
         <v>32.33</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
+        <v>32.33</v>
+      </c>
+      <c r="I6" s="17">
+        <v>19.199999999999996</v>
+      </c>
+      <c r="J6" s="13">
+        <v>32.33</v>
+      </c>
+      <c r="K6" s="17">
         <v>9.5999999999999979</v>
       </c>
-      <c r="I6" s="13">
+      <c r="L6" s="13">
         <v>32.33</v>
       </c>
-      <c r="J6" s="13">
+      <c r="M6" s="13">
         <v>10.3</v>
       </c>
-      <c r="K6" s="13">
+      <c r="N6" s="13">
         <v>25.8</v>
       </c>
-      <c r="L6" s="17">
+      <c r="O6" s="17">
         <v>20.5</v>
       </c>
-      <c r="M6" s="13">
+      <c r="P6" s="13">
         <v>24.6</v>
       </c>
-      <c r="N6" s="17">
+      <c r="Q6" s="17">
         <v>43.9</v>
       </c>
-      <c r="O6" s="13">
+      <c r="R6" s="13">
         <v>5.19</v>
       </c>
-      <c r="P6" s="13">
+      <c r="S6" s="13">
         <v>33</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="T6" s="13">
         <v>30.6</v>
       </c>
-      <c r="R6" s="13">
+      <c r="U6" s="13">
         <v>27</v>
       </c>
-      <c r="S6" s="13">
+      <c r="V6" s="13">
         <v>24.6</v>
       </c>
-      <c r="T6" s="13">
+      <c r="W6" s="13">
         <v>24</v>
       </c>
-      <c r="U6" s="13">
+      <c r="X6" s="13">
         <v>21.6</v>
       </c>
-      <c r="V6" s="13">
+      <c r="Y6" s="13">
         <v>22</v>
       </c>
-      <c r="W6" s="13">
+      <c r="Z6" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="X6" s="13">
+      <c r="AA6" s="13">
         <v>31</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="AB6" s="13">
         <v>32.1</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="AC6" s="13">
         <v>27.5</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AD6" s="13">
         <v>28.6</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AE6" s="13">
         <v>27.9</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AF6" s="13">
         <v>29</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AG6" s="13">
         <v>11</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AH6" s="13">
         <v>15</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AI6" s="13">
         <v>14.8</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -17194,95 +17266,104 @@
       <c r="C7" s="10">
         <v>250</v>
       </c>
-      <c r="D7" s="13">
-        <v>43.08</v>
-      </c>
-      <c r="E7" s="13">
-        <v>43.08</v>
-      </c>
-      <c r="F7" s="17">
-        <v>25.6</v>
+      <c r="D7" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6</v>
       </c>
       <c r="G7" s="13">
         <v>43.08</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
+        <v>43.08</v>
+      </c>
+      <c r="I7" s="17">
+        <v>25.6</v>
+      </c>
+      <c r="J7" s="13">
+        <v>43.08</v>
+      </c>
+      <c r="K7" s="17">
         <v>12.8</v>
       </c>
-      <c r="I7" s="13">
+      <c r="L7" s="13">
         <v>43.08</v>
       </c>
-      <c r="J7" s="13">
+      <c r="M7" s="13">
         <v>14.2</v>
       </c>
-      <c r="K7" s="13">
+      <c r="N7" s="13">
         <v>35.1</v>
       </c>
-      <c r="L7" s="17">
+      <c r="O7" s="17">
         <v>28</v>
       </c>
-      <c r="M7" s="13">
+      <c r="P7" s="13">
         <v>32.9</v>
       </c>
-      <c r="N7" s="17">
+      <c r="Q7" s="17">
         <v>58.4</v>
       </c>
-      <c r="O7" s="13">
+      <c r="R7" s="13">
         <v>6.81</v>
       </c>
-      <c r="P7" s="13">
+      <c r="S7" s="13">
         <v>48.5</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="T7" s="13">
         <v>44.9</v>
       </c>
-      <c r="R7" s="13">
+      <c r="U7" s="13">
         <v>38.5</v>
       </c>
-      <c r="S7" s="13">
+      <c r="V7" s="13">
         <v>34.9</v>
       </c>
-      <c r="T7" s="13">
+      <c r="W7" s="13">
         <v>33.5</v>
       </c>
-      <c r="U7" s="13">
+      <c r="X7" s="13">
         <v>29.9</v>
       </c>
-      <c r="V7" s="13">
+      <c r="Y7" s="13">
         <v>30.5</v>
       </c>
-      <c r="W7" s="13">
+      <c r="Z7" s="13">
         <v>26.9</v>
       </c>
-      <c r="X7" s="13">
+      <c r="AA7" s="13">
         <v>50</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="AB7" s="13">
         <v>51</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="AC7" s="13">
         <v>55</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AD7" s="13">
         <v>56</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AE7" s="13">
         <v>55.9</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AF7" s="13">
         <v>56.9</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AG7" s="13">
         <v>16.5</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AH7" s="13">
         <v>21</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AI7" s="13">
         <v>21.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -17292,95 +17373,104 @@
       <c r="C8" s="10">
         <v>300</v>
       </c>
-      <c r="D8" s="13">
-        <v>53.83</v>
-      </c>
-      <c r="E8" s="13">
-        <v>53.83</v>
-      </c>
-      <c r="F8" s="17">
-        <v>28.199999999999996</v>
+      <c r="D8" s="21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E8" s="21">
+        <v>12.8</v>
+      </c>
+      <c r="F8" s="21">
+        <v>8</v>
       </c>
       <c r="G8" s="13">
         <v>53.83</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
+        <v>53.83</v>
+      </c>
+      <c r="I8" s="17">
+        <v>28.199999999999996</v>
+      </c>
+      <c r="J8" s="13">
+        <v>53.83</v>
+      </c>
+      <c r="K8" s="17">
         <v>14.099999999999998</v>
       </c>
-      <c r="I8" s="13">
+      <c r="L8" s="13">
         <v>53.83</v>
       </c>
-      <c r="J8" s="13">
+      <c r="M8" s="13">
         <v>18.600000000000001</v>
       </c>
-      <c r="K8" s="13">
+      <c r="N8" s="13">
         <v>45.3</v>
       </c>
-      <c r="L8" s="17">
+      <c r="O8" s="17">
         <v>37</v>
       </c>
-      <c r="M8" s="13">
+      <c r="P8" s="13">
         <v>42.8</v>
       </c>
-      <c r="N8" s="17">
+      <c r="Q8" s="17">
         <v>74.400000000000006</v>
       </c>
-      <c r="O8" s="13">
+      <c r="R8" s="13">
         <v>8.67</v>
       </c>
-      <c r="P8" s="13">
+      <c r="S8" s="13">
         <v>68</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="T8" s="13">
         <v>62.9</v>
       </c>
-      <c r="R8" s="13">
+      <c r="U8" s="13">
         <v>53</v>
       </c>
-      <c r="S8" s="13">
+      <c r="V8" s="13">
         <v>47.9</v>
       </c>
-      <c r="T8" s="13">
+      <c r="W8" s="13">
         <v>44.5</v>
       </c>
-      <c r="U8" s="13">
+      <c r="X8" s="13">
         <v>39.4</v>
       </c>
-      <c r="V8" s="13">
+      <c r="Y8" s="13">
         <v>40.5</v>
       </c>
-      <c r="W8" s="13">
+      <c r="Z8" s="13">
         <v>35.4</v>
       </c>
-      <c r="X8" s="13">
+      <c r="AA8" s="13">
         <v>70</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="AB8" s="13">
         <v>70.7</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="AC8" s="13">
         <v>76</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AD8" s="13">
         <v>76.7</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AE8" s="13">
         <v>78.8</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AF8" s="13">
         <v>79.5</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AG8" s="13">
         <v>24</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AH8" s="13">
         <v>28.5</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AI8" s="13">
         <v>33.5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -17390,95 +17480,104 @@
       <c r="C9" s="10">
         <v>350</v>
       </c>
-      <c r="D9" s="13">
-        <v>67.08</v>
-      </c>
-      <c r="E9" s="13">
-        <v>67.08</v>
-      </c>
-      <c r="F9" s="17">
-        <v>32.6</v>
+      <c r="D9" s="21">
+        <v>23.7</v>
+      </c>
+      <c r="E9" s="21">
+        <v>14.099999999999998</v>
+      </c>
+      <c r="F9" s="21">
+        <v>10</v>
       </c>
       <c r="G9" s="13">
         <v>67.08</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
+        <v>67.08</v>
+      </c>
+      <c r="I9" s="17">
+        <v>32.6</v>
+      </c>
+      <c r="J9" s="13">
+        <v>67.08</v>
+      </c>
+      <c r="K9" s="17">
         <v>16.3</v>
       </c>
-      <c r="I9" s="13">
+      <c r="L9" s="13">
         <v>67.08</v>
       </c>
-      <c r="J9" s="13">
+      <c r="M9" s="13">
         <v>23.7</v>
       </c>
-      <c r="K9" s="13">
+      <c r="N9" s="13">
         <v>54.6</v>
       </c>
-      <c r="L9" s="17">
+      <c r="O9" s="17">
         <v>45</v>
       </c>
-      <c r="M9" s="13">
+      <c r="P9" s="13">
         <v>57.3</v>
       </c>
-      <c r="N9" s="17">
+      <c r="Q9" s="17">
         <v>91.9</v>
       </c>
-      <c r="O9" s="13">
+      <c r="R9" s="13">
         <v>10.76</v>
       </c>
-      <c r="P9" s="13">
+      <c r="S9" s="13">
         <v>97.5</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="T9" s="13">
         <v>90.4</v>
       </c>
-      <c r="R9" s="13">
+      <c r="U9" s="13">
         <v>70</v>
       </c>
-      <c r="S9" s="13">
+      <c r="V9" s="13">
         <v>62.9</v>
       </c>
-      <c r="T9" s="13">
+      <c r="W9" s="13">
         <v>58</v>
       </c>
-      <c r="U9" s="13">
+      <c r="X9" s="13">
         <v>50.9</v>
       </c>
-      <c r="V9" s="13">
+      <c r="Y9" s="13">
         <v>52</v>
       </c>
-      <c r="W9" s="13">
+      <c r="Z9" s="13">
         <v>44.9</v>
       </c>
-      <c r="X9" s="13">
+      <c r="AA9" s="13">
         <v>90</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="AB9" s="13">
         <v>92.5</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="AC9" s="13">
         <v>78</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AD9" s="13">
         <v>80.5</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AE9" s="13">
         <v>77.3</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AF9" s="13">
         <v>79.8</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AG9" s="13">
         <v>29.5</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AH9" s="13">
         <v>35.5</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AI9" s="13">
         <v>45.5</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -17488,95 +17587,104 @@
       <c r="C10" s="11">
         <v>400</v>
       </c>
-      <c r="D10" s="13">
-        <v>80.33</v>
-      </c>
-      <c r="E10" s="13">
-        <v>80.33</v>
-      </c>
-      <c r="F10" s="17">
-        <v>40.400000000000006</v>
+      <c r="D10" s="21">
+        <v>29.3</v>
+      </c>
+      <c r="E10" s="21">
+        <v>16.3</v>
+      </c>
+      <c r="F10" s="21">
+        <v>12</v>
       </c>
       <c r="G10" s="13">
         <v>80.33</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
+        <v>80.33</v>
+      </c>
+      <c r="I10" s="17">
+        <v>40.400000000000006</v>
+      </c>
+      <c r="J10" s="13">
+        <v>80.33</v>
+      </c>
+      <c r="K10" s="17">
         <v>20.200000000000003</v>
       </c>
-      <c r="I10" s="13">
+      <c r="L10" s="13">
         <v>80.33</v>
       </c>
-      <c r="J10" s="13">
+      <c r="M10" s="13">
         <v>29.3</v>
       </c>
-      <c r="K10" s="13">
+      <c r="N10" s="13">
         <v>64.8</v>
       </c>
-      <c r="L10" s="17">
+      <c r="O10" s="17">
         <v>55</v>
       </c>
-      <c r="M10" s="13">
+      <c r="P10" s="13">
         <v>71.599999999999994</v>
       </c>
-      <c r="N10" s="17">
+      <c r="Q10" s="17">
         <v>110.6</v>
       </c>
-      <c r="O10" s="13">
+      <c r="R10" s="13">
         <v>13.08</v>
       </c>
-      <c r="P10" s="13">
+      <c r="S10" s="13">
         <v>124</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="T10" s="13">
         <v>114.7</v>
       </c>
-      <c r="R10" s="13">
+      <c r="U10" s="13">
         <v>89</v>
       </c>
-      <c r="S10" s="13">
+      <c r="V10" s="13">
         <v>79.7</v>
       </c>
-      <c r="T10" s="13">
+      <c r="W10" s="13">
         <v>74</v>
       </c>
-      <c r="U10" s="13">
+      <c r="X10" s="13">
         <v>64.7</v>
       </c>
-      <c r="V10" s="13">
+      <c r="Y10" s="13">
         <v>65</v>
       </c>
-      <c r="W10" s="13">
+      <c r="Z10" s="13">
         <v>55.7</v>
       </c>
-      <c r="X10" s="13">
+      <c r="AA10" s="13">
         <v>116</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="AB10" s="13">
         <v>119.7</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="AC10" s="13">
         <v>96</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AD10" s="13">
         <v>99.7</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AE10" s="13">
         <v>96.7</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AF10" s="13">
         <v>100.4</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AG10" s="13">
         <v>36.5</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AH10" s="13">
         <v>45</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AI10" s="13">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -17586,95 +17694,104 @@
       <c r="C11" s="10">
         <v>450</v>
       </c>
-      <c r="D11" s="13">
-        <v>95.92</v>
-      </c>
-      <c r="E11" s="13">
-        <v>95.92</v>
-      </c>
-      <c r="F11" s="17">
-        <v>43.599999999999994</v>
+      <c r="D11" s="21">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E11" s="21">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="F11" s="21">
+        <v>14</v>
       </c>
       <c r="G11" s="13">
         <v>95.92</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
+        <v>95.92</v>
+      </c>
+      <c r="I11" s="17">
+        <v>43.599999999999994</v>
+      </c>
+      <c r="J11" s="13">
+        <v>95.92</v>
+      </c>
+      <c r="K11" s="17">
         <v>21.799999999999997</v>
       </c>
-      <c r="I11" s="13">
+      <c r="L11" s="13">
         <v>95.92</v>
       </c>
-      <c r="J11" s="13">
+      <c r="M11" s="13">
         <v>32.32</v>
       </c>
-      <c r="K11" s="13">
+      <c r="N11" s="13">
         <v>78.25</v>
       </c>
-      <c r="L11" s="17">
+      <c r="O11" s="17">
         <v>70.5</v>
       </c>
-      <c r="M11" s="13">
+      <c r="P11" s="13">
         <v>80</v>
       </c>
-      <c r="N11" s="17">
+      <c r="Q11" s="17">
         <v>130.80000000000001</v>
       </c>
-      <c r="O11" s="13">
+      <c r="R11" s="13">
         <v>15.66</v>
       </c>
-      <c r="P11" s="13">
+      <c r="S11" s="13">
         <v>156</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="T11" s="13">
         <v>147.5</v>
       </c>
-      <c r="R11" s="13">
+      <c r="U11" s="13">
         <v>117</v>
       </c>
-      <c r="S11" s="13">
+      <c r="V11" s="13">
         <v>108.5</v>
       </c>
-      <c r="T11" s="13">
+      <c r="W11" s="13">
         <v>95</v>
       </c>
-      <c r="U11" s="13">
+      <c r="X11" s="13">
         <v>86.5</v>
       </c>
-      <c r="V11" s="13">
+      <c r="Y11" s="13">
         <v>83.5</v>
       </c>
-      <c r="W11" s="13">
+      <c r="Z11" s="13">
         <v>75</v>
       </c>
-      <c r="X11" s="13">
+      <c r="AA11" s="13">
         <v>147</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="AB11" s="13">
         <v>150.5</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="AC11" s="13">
         <v>120</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AD11" s="13">
         <v>123.5</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AE11" s="13">
         <v>122</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AF11" s="13">
         <v>125.5</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AG11" s="13">
         <v>46.5</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AH11" s="13">
         <v>54</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AI11" s="13">
         <v>68.5</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -17684,95 +17801,104 @@
       <c r="C12" s="10">
         <v>500</v>
       </c>
-      <c r="D12" s="13">
-        <v>111.5</v>
-      </c>
-      <c r="E12" s="13">
-        <v>111.5</v>
-      </c>
-      <c r="F12" s="17">
-        <v>61.599999999999994</v>
+      <c r="D12" s="21">
+        <v>42.8</v>
+      </c>
+      <c r="E12" s="21">
+        <v>21.799999999999997</v>
+      </c>
+      <c r="F12" s="21">
+        <v>17</v>
       </c>
       <c r="G12" s="13">
         <v>111.5</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
+        <v>111.5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>61.599999999999994</v>
+      </c>
+      <c r="J12" s="13">
+        <v>111.5</v>
+      </c>
+      <c r="K12" s="17">
         <v>30.799999999999997</v>
       </c>
-      <c r="I12" s="13">
+      <c r="L12" s="13">
         <v>111.5</v>
       </c>
-      <c r="J12" s="13">
+      <c r="M12" s="13">
         <v>42.8</v>
       </c>
-      <c r="K12" s="13">
+      <c r="N12" s="13">
         <v>89.3</v>
       </c>
-      <c r="L12" s="17">
+      <c r="O12" s="17">
         <v>78</v>
       </c>
-      <c r="M12" s="13">
+      <c r="P12" s="13">
         <v>104.2</v>
       </c>
-      <c r="N12" s="17">
+      <c r="Q12" s="17">
         <v>152.80000000000001</v>
       </c>
-      <c r="O12" s="13">
+      <c r="R12" s="13">
         <v>18.55</v>
       </c>
-      <c r="P12" s="13">
+      <c r="S12" s="13">
         <v>193</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="T12" s="13">
         <v>177.8</v>
       </c>
-      <c r="R12" s="13">
+      <c r="U12" s="13">
         <v>139</v>
       </c>
-      <c r="S12" s="13">
+      <c r="V12" s="13">
         <v>123.8</v>
       </c>
-      <c r="T12" s="13">
+      <c r="W12" s="13">
         <v>111</v>
       </c>
-      <c r="U12" s="13">
+      <c r="X12" s="13">
         <v>95.8</v>
       </c>
-      <c r="V12" s="13">
+      <c r="Y12" s="13">
         <v>96</v>
       </c>
-      <c r="W12" s="13">
+      <c r="Z12" s="13">
         <v>80.8</v>
       </c>
-      <c r="X12" s="13">
+      <c r="AA12" s="13">
         <v>181</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="AB12" s="13">
         <v>186.8</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="AC12" s="13">
         <v>145</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AD12" s="13">
         <v>150.80000000000001</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AE12" s="13">
         <v>146</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AF12" s="13">
         <v>151.80000000000001</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AG12" s="13">
         <v>56</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AH12" s="13">
         <v>67</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AI12" s="13">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -17782,95 +17908,104 @@
       <c r="C13" s="10">
         <v>600</v>
       </c>
-      <c r="D13" s="13">
-        <v>147</v>
-      </c>
-      <c r="E13" s="13">
-        <v>147</v>
-      </c>
-      <c r="F13" s="17">
-        <v>81</v>
+      <c r="D13" s="21">
+        <v>59.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="F13" s="21">
+        <v>24</v>
       </c>
       <c r="G13" s="13">
         <v>147</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
+        <v>147</v>
+      </c>
+      <c r="I13" s="17">
+        <v>81</v>
+      </c>
+      <c r="J13" s="13">
+        <v>147</v>
+      </c>
+      <c r="K13" s="17">
         <v>40.5</v>
       </c>
-      <c r="I13" s="13">
+      <c r="L13" s="13">
         <v>147</v>
       </c>
-      <c r="J13" s="13">
+      <c r="M13" s="13">
         <v>59.3</v>
       </c>
-      <c r="K13" s="13">
+      <c r="N13" s="13">
         <v>119.8</v>
       </c>
-      <c r="L13" s="17">
+      <c r="O13" s="17">
         <v>108</v>
       </c>
-      <c r="M13" s="13">
+      <c r="P13" s="13">
         <v>146.19999999999999</v>
       </c>
-      <c r="N13" s="17">
+      <c r="Q13" s="17">
         <v>201</v>
       </c>
-      <c r="O13" s="13">
+      <c r="R13" s="13">
         <v>25.16</v>
       </c>
-      <c r="P13" s="13">
+      <c r="S13" s="13">
         <v>280</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="T13" s="13">
         <v>257.10000000000002</v>
       </c>
-      <c r="R13" s="13">
+      <c r="U13" s="13">
         <v>202</v>
       </c>
-      <c r="S13" s="13">
+      <c r="V13" s="13">
         <v>179.1</v>
       </c>
-      <c r="T13" s="13">
+      <c r="W13" s="13">
         <v>157</v>
       </c>
-      <c r="U13" s="13">
+      <c r="X13" s="13">
         <v>134.1</v>
       </c>
-      <c r="V13" s="13">
+      <c r="Y13" s="13">
         <v>134</v>
       </c>
-      <c r="W13" s="13">
+      <c r="Z13" s="13">
         <v>111.1</v>
       </c>
-      <c r="X13" s="13">
+      <c r="AA13" s="13">
         <v>272</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="AB13" s="13">
         <v>277.60000000000002</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="AC13" s="13">
         <v>212</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AD13" s="13">
         <v>217.6</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AE13" s="13">
         <v>215.2</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AF13" s="13">
         <v>220.8</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AG13" s="13">
         <v>85</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AH13" s="13">
         <v>96.5</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AI13" s="13">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -17880,93 +18015,102 @@
       <c r="C14" s="11">
         <v>700</v>
       </c>
-      <c r="D14" s="13">
-        <v>187.17</v>
-      </c>
-      <c r="E14" s="13">
-        <v>187.17</v>
-      </c>
-      <c r="F14" s="17">
-        <v>109.59999999999997</v>
+      <c r="D14" s="21">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="E14" s="21">
+        <v>40.5</v>
+      </c>
+      <c r="F14" s="21">
+        <v>32</v>
       </c>
       <c r="G14" s="13">
         <v>187.17</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
+        <v>187.17</v>
+      </c>
+      <c r="I14" s="17">
+        <v>109.59999999999997</v>
+      </c>
+      <c r="J14" s="13">
+        <v>187.17</v>
+      </c>
+      <c r="K14" s="17">
         <v>54.799999999999983</v>
       </c>
-      <c r="I14" s="13">
+      <c r="L14" s="13">
         <v>187.17</v>
       </c>
-      <c r="J14" s="13">
+      <c r="M14" s="13">
         <v>79.099999999999994</v>
       </c>
-      <c r="K14" s="13">
+      <c r="N14" s="13">
         <v>175.5</v>
       </c>
-      <c r="L14" s="17">
+      <c r="O14" s="17">
         <v>144</v>
       </c>
-      <c r="M14" s="13">
+      <c r="P14" s="13">
         <v>192</v>
       </c>
-      <c r="N14" s="17">
+      <c r="Q14" s="17">
         <v>255.2</v>
       </c>
-      <c r="O14" s="13">
+      <c r="R14" s="13">
         <v>33.03</v>
       </c>
-      <c r="P14" s="13">
+      <c r="S14" s="13">
         <v>455</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="T14" s="13">
         <v>422.1</v>
       </c>
-      <c r="R14" s="13">
+      <c r="U14" s="13">
         <v>282</v>
       </c>
-      <c r="S14" s="13">
+      <c r="V14" s="13">
         <v>249.1</v>
       </c>
-      <c r="T14" s="13">
+      <c r="W14" s="13">
         <v>217</v>
       </c>
-      <c r="U14" s="13">
+      <c r="X14" s="13">
         <v>184.1</v>
       </c>
-      <c r="V14" s="13">
+      <c r="Y14" s="13">
         <v>181</v>
       </c>
-      <c r="W14" s="13">
+      <c r="Z14" s="13">
         <v>148.1</v>
       </c>
-      <c r="X14" s="13">
+      <c r="AA14" s="13">
         <v>386</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="AB14" s="13">
         <v>391.7</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="AC14" s="13">
         <v>296</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AD14" s="13">
         <v>301.7</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AE14" s="13">
         <v>199.4</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AF14" s="13">
         <v>305.10000000000002</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AG14" s="13">
         <v>123</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AH14" s="13">
         <v>135</v>
       </c>
-      <c r="AF14" s="13"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI14" s="13"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -17976,93 +18120,102 @@
       <c r="C15" s="10">
         <v>800</v>
       </c>
-      <c r="D15" s="13">
-        <v>232.33</v>
-      </c>
-      <c r="E15" s="13">
-        <v>232.33</v>
-      </c>
-      <c r="F15" s="17">
-        <v>128.59999999999997</v>
+      <c r="D15" s="21">
+        <v>102.6</v>
+      </c>
+      <c r="E15" s="21">
+        <v>54.799999999999983</v>
+      </c>
+      <c r="F15" s="21">
+        <v>42</v>
       </c>
       <c r="G15" s="13">
         <v>232.33</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
+        <v>232.33</v>
+      </c>
+      <c r="I15" s="17">
+        <v>128.59999999999997</v>
+      </c>
+      <c r="J15" s="13">
+        <v>232.33</v>
+      </c>
+      <c r="K15" s="17">
         <v>64.299999999999983</v>
       </c>
-      <c r="I15" s="13">
+      <c r="L15" s="13">
         <v>232.33</v>
       </c>
-      <c r="J15" s="13">
+      <c r="M15" s="13">
         <v>102.6</v>
       </c>
-      <c r="K15" s="13">
+      <c r="N15" s="13">
         <v>226</v>
       </c>
-      <c r="L15" s="17">
+      <c r="O15" s="17">
         <v>189</v>
       </c>
-      <c r="M15" s="13">
+      <c r="P15" s="13">
         <v>250.6</v>
       </c>
-      <c r="N15" s="17">
+      <c r="Q15" s="17">
         <v>315.7</v>
       </c>
-      <c r="O15" s="13">
+      <c r="R15" s="13">
         <v>42.29</v>
       </c>
-      <c r="P15" s="13">
+      <c r="S15" s="13">
         <v>605</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="T15" s="13">
         <v>559.5</v>
       </c>
-      <c r="R15" s="13">
+      <c r="U15" s="13">
         <v>378</v>
       </c>
-      <c r="S15" s="13">
+      <c r="V15" s="13">
         <v>332.5</v>
       </c>
-      <c r="T15" s="13">
+      <c r="W15" s="13">
         <v>287</v>
       </c>
-      <c r="U15" s="13">
+      <c r="X15" s="13">
         <v>241.5</v>
       </c>
-      <c r="V15" s="13">
+      <c r="Y15" s="13">
         <v>239</v>
       </c>
-      <c r="W15" s="13">
+      <c r="Z15" s="13">
         <v>193.5</v>
       </c>
-      <c r="X15" s="13">
+      <c r="AA15" s="13">
         <v>533</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AB15" s="13">
         <v>535.29999999999995</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="AC15" s="13">
         <v>403</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AD15" s="13">
         <v>405.3</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AE15" s="13">
         <v>408.4</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AF15" s="13">
         <v>410.7</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AG15" s="13">
         <v>172</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AH15" s="13">
         <v>182</v>
       </c>
-      <c r="AF15" s="13"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI15" s="13"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -18072,93 +18225,102 @@
       <c r="C16" s="11">
         <v>900</v>
       </c>
-      <c r="D16" s="13">
-        <v>284.25</v>
-      </c>
-      <c r="E16" s="13">
-        <v>284.25</v>
-      </c>
-      <c r="F16" s="17">
-        <v>162.80000000000001</v>
+      <c r="D16" s="21">
+        <v>129.9</v>
+      </c>
+      <c r="E16" s="21">
+        <v>64.299999999999983</v>
+      </c>
+      <c r="F16" s="21">
+        <v>54</v>
       </c>
       <c r="G16" s="13">
         <v>284.25</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
+        <v>284.25</v>
+      </c>
+      <c r="I16" s="17">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="J16" s="13">
+        <v>284.25</v>
+      </c>
+      <c r="K16" s="17">
         <v>81.400000000000006</v>
       </c>
-      <c r="I16" s="13">
+      <c r="L16" s="13">
         <v>284.25</v>
       </c>
-      <c r="J16" s="13">
+      <c r="M16" s="13">
         <v>129.9</v>
       </c>
-      <c r="K16" s="13">
+      <c r="N16" s="13">
         <v>272</v>
       </c>
-      <c r="L16" s="17">
+      <c r="O16" s="17">
         <v>235</v>
       </c>
-      <c r="M16" s="13">
+      <c r="P16" s="13">
         <v>316.2</v>
       </c>
-      <c r="N16" s="17">
+      <c r="Q16" s="17">
         <v>381.9</v>
       </c>
-      <c r="O16" s="13">
+      <c r="R16" s="13">
         <v>52.96</v>
       </c>
-      <c r="P16" s="13">
+      <c r="S16" s="13">
         <v>813</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="T16" s="13">
         <v>769.5</v>
       </c>
-      <c r="R16" s="13">
+      <c r="U16" s="13">
         <v>496</v>
       </c>
-      <c r="S16" s="13">
+      <c r="V16" s="13">
         <v>452.5</v>
       </c>
-      <c r="T16" s="13">
+      <c r="W16" s="13">
         <v>373</v>
       </c>
-      <c r="U16" s="13">
+      <c r="X16" s="13">
         <v>329.5</v>
       </c>
-      <c r="V16" s="13">
+      <c r="Y16" s="13">
         <v>305</v>
       </c>
-      <c r="W16" s="13">
+      <c r="Z16" s="13">
         <v>261.5</v>
       </c>
-      <c r="X16" s="13">
+      <c r="AA16" s="13">
         <v>698</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="AB16" s="13">
         <v>720.1</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="AC16" s="13">
         <v>519</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AD16" s="13">
         <v>541.1</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AE16" s="13">
         <v>525.6</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AF16" s="13">
         <v>547.70000000000005</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AG16" s="13">
         <v>224</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AH16" s="13">
         <v>231</v>
       </c>
-      <c r="AF16" s="13"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI16" s="13"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -18168,93 +18330,102 @@
       <c r="C17" s="11">
         <v>1000</v>
       </c>
-      <c r="D17" s="13">
-        <v>336.17</v>
-      </c>
-      <c r="E17" s="13">
-        <v>336.17</v>
-      </c>
-      <c r="F17" s="17">
-        <v>241.80000000000007</v>
+      <c r="D17" s="21">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="E17" s="21">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F17" s="21">
+        <v>69</v>
       </c>
       <c r="G17" s="13">
         <v>336.17</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="13">
+        <v>336.17</v>
+      </c>
+      <c r="I17" s="17">
+        <v>241.80000000000007</v>
+      </c>
+      <c r="J17" s="13">
+        <v>336.17</v>
+      </c>
+      <c r="K17" s="17">
         <v>120.90000000000003</v>
       </c>
-      <c r="I17" s="13">
+      <c r="L17" s="13">
         <v>336.17</v>
       </c>
-      <c r="J17" s="13">
+      <c r="M17" s="13">
         <v>161.30000000000001</v>
       </c>
-      <c r="K17" s="13">
+      <c r="N17" s="13">
         <v>328</v>
       </c>
-      <c r="L17" s="17">
+      <c r="O17" s="17">
         <v>293</v>
       </c>
-      <c r="M17" s="13">
+      <c r="P17" s="13">
         <v>390.2</v>
       </c>
-      <c r="N17" s="17">
+      <c r="Q17" s="17">
         <v>454.1</v>
       </c>
-      <c r="O17" s="13">
+      <c r="R17" s="13">
         <v>67.150000000000006</v>
       </c>
-      <c r="P17" s="13">
+      <c r="S17" s="13">
         <v>1045</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="T17" s="13">
         <v>986.4</v>
       </c>
-      <c r="R17" s="13">
+      <c r="U17" s="13">
         <v>635</v>
       </c>
-      <c r="S17" s="13">
+      <c r="V17" s="13">
         <v>576.4</v>
       </c>
-      <c r="T17" s="13">
+      <c r="W17" s="13">
         <v>470</v>
       </c>
-      <c r="U17" s="13">
+      <c r="X17" s="13">
         <v>411.4</v>
       </c>
-      <c r="V17" s="13">
+      <c r="Y17" s="13">
         <v>381</v>
       </c>
-      <c r="W17" s="13">
+      <c r="Z17" s="13">
         <v>322.39999999999998</v>
       </c>
-      <c r="X17" s="13">
+      <c r="AA17" s="13">
         <v>907</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="AB17" s="13">
         <v>928.3</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="AC17" s="13">
         <v>668</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AD17" s="13">
         <v>689.3</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AE17" s="13">
         <v>677</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AF17" s="13">
         <v>698.3</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AG17" s="13">
         <v>293</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AH17" s="13">
         <v>297</v>
       </c>
-      <c r="AF17" s="13"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI17" s="13"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -18264,93 +18435,102 @@
       <c r="C18" s="11">
         <v>1200</v>
       </c>
-      <c r="D18" s="13">
-        <v>459.67</v>
-      </c>
-      <c r="E18" s="13">
-        <v>459.67</v>
-      </c>
-      <c r="F18" s="17">
-        <v>295.60000000000002</v>
+      <c r="D18" s="21">
+        <v>237.7</v>
+      </c>
+      <c r="E18" s="21">
+        <v>120.90000000000003</v>
+      </c>
+      <c r="F18" s="21">
+        <v>108</v>
       </c>
       <c r="G18" s="13">
         <v>459.67</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="13">
+        <v>459.67</v>
+      </c>
+      <c r="I18" s="17">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="J18" s="13">
+        <v>459.67</v>
+      </c>
+      <c r="K18" s="17">
         <v>147.80000000000001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="L18" s="13">
         <v>459.67</v>
       </c>
-      <c r="J18" s="13">
+      <c r="M18" s="13">
         <v>237.7</v>
       </c>
-      <c r="K18" s="13">
+      <c r="N18" s="13">
         <v>456</v>
       </c>
-      <c r="L18" s="17">
+      <c r="O18" s="17">
         <v>456</v>
       </c>
-      <c r="M18" s="13">
+      <c r="P18" s="13">
         <v>572.6</v>
       </c>
-      <c r="N18" s="17">
+      <c r="Q18" s="17">
         <v>616.9</v>
       </c>
-      <c r="O18" s="13">
+      <c r="R18" s="13">
         <v>102.41</v>
       </c>
-      <c r="P18" s="13">
+      <c r="S18" s="13">
         <v>1663</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="T18" s="13">
         <v>1564.8</v>
       </c>
-      <c r="R18" s="13">
+      <c r="U18" s="13">
         <v>986</v>
       </c>
-      <c r="S18" s="13">
+      <c r="V18" s="13">
         <v>887.8</v>
       </c>
-      <c r="T18" s="13">
+      <c r="W18" s="13">
         <v>716</v>
       </c>
-      <c r="U18" s="13">
+      <c r="X18" s="13">
         <v>617.79999999999995</v>
       </c>
-      <c r="V18" s="13">
+      <c r="Y18" s="13">
         <v>568</v>
       </c>
-      <c r="W18" s="13">
+      <c r="Z18" s="13">
         <v>469.8</v>
       </c>
-      <c r="X18" s="13">
+      <c r="AA18" s="13">
         <v>1452</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="AB18" s="13">
         <v>1470.6</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="AC18" s="13">
         <v>1050</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AD18" s="13">
         <v>1068.5999999999999</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AE18" s="13">
         <v>1053</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AF18" s="13">
         <v>1070.7</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AG18" s="13">
         <v>575</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AH18" s="13">
         <v>457</v>
       </c>
-      <c r="AF18" s="13"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI18" s="13"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -18360,93 +18540,102 @@
       <c r="C19" s="11">
         <v>1400</v>
       </c>
-      <c r="D19" s="13">
-        <v>593.83000000000004</v>
-      </c>
-      <c r="E19" s="13">
-        <v>593.83000000000004</v>
-      </c>
-      <c r="F19" s="17">
-        <v>402.80000000000007</v>
+      <c r="D19" s="21">
+        <v>279.3</v>
+      </c>
+      <c r="E19" s="21">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="F19" s="21">
+        <v>173</v>
       </c>
       <c r="G19" s="13">
         <v>593.83000000000004</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="13">
+        <v>593.83000000000004</v>
+      </c>
+      <c r="I19" s="17">
+        <v>402.80000000000007</v>
+      </c>
+      <c r="J19" s="13">
+        <v>593.83000000000004</v>
+      </c>
+      <c r="K19" s="17">
         <v>201.40000000000003</v>
       </c>
-      <c r="I19" s="13">
+      <c r="L19" s="13">
         <v>593.83000000000004</v>
       </c>
-      <c r="J19" s="13">
+      <c r="M19" s="13">
         <v>279.3</v>
       </c>
-      <c r="K19" s="13">
+      <c r="N19" s="13">
         <v>664</v>
       </c>
-      <c r="L19" s="17">
+      <c r="O19" s="17">
         <v>654</v>
       </c>
-      <c r="M19" s="13">
+      <c r="P19" s="13">
         <v>732</v>
       </c>
-      <c r="N19" s="17">
+      <c r="Q19" s="17">
         <v>803.7</v>
       </c>
-      <c r="O19" s="13">
+      <c r="R19" s="13">
         <v>144.11000000000001</v>
       </c>
-      <c r="P19" s="13">
+      <c r="S19" s="13">
         <v>1949</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="T19" s="13">
         <v>1887.7</v>
       </c>
-      <c r="R19" s="13">
+      <c r="U19" s="13">
         <v>1273</v>
       </c>
-      <c r="S19" s="13">
+      <c r="V19" s="13">
         <v>1211.7</v>
       </c>
-      <c r="T19" s="13">
+      <c r="W19" s="13">
         <v>933</v>
       </c>
-      <c r="U19" s="13">
+      <c r="X19" s="13">
         <v>871.7</v>
       </c>
-      <c r="V19" s="13">
+      <c r="Y19" s="13">
         <v>747</v>
       </c>
-      <c r="W19" s="13">
+      <c r="Z19" s="13">
         <v>685.7</v>
       </c>
-      <c r="X19" s="13">
+      <c r="AA19" s="13">
         <v>1948</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="AB19" s="13">
         <v>2018.2</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="AC19" s="13">
         <v>1388</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AD19" s="13">
         <v>1458.2</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AE19" s="13">
         <v>1497.2</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AF19" s="13">
         <v>1567.4</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AG19" s="13">
         <v>739</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AH19" s="13">
         <v>646</v>
       </c>
-      <c r="AF19" s="13"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI19" s="13"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -18456,99 +18645,108 @@
       <c r="C20" s="11">
         <v>1500</v>
       </c>
-      <c r="D20" s="13">
-        <v>669.81</v>
-      </c>
-      <c r="E20" s="13">
-        <v>669.81</v>
-      </c>
-      <c r="F20" s="17">
-        <v>412.79999999999995</v>
+      <c r="D20" s="21">
+        <v>314.8</v>
+      </c>
+      <c r="E20" s="21">
+        <v>201.40000000000003</v>
+      </c>
+      <c r="F20" s="21">
+        <v>206</v>
       </c>
       <c r="G20" s="13">
         <v>669.81</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="13">
+        <v>669.81</v>
+      </c>
+      <c r="I20" s="17">
+        <v>412.79999999999995</v>
+      </c>
+      <c r="J20" s="13">
+        <v>669.81</v>
+      </c>
+      <c r="K20" s="17">
         <v>206.39999999999998</v>
       </c>
-      <c r="I20" s="13">
+      <c r="L20" s="13">
         <v>669.81</v>
       </c>
-      <c r="J20" s="13">
+      <c r="M20" s="13">
         <v>314.8</v>
       </c>
-      <c r="K20" s="13">
+      <c r="N20" s="13">
         <v>812</v>
       </c>
-      <c r="L20" s="17">
+      <c r="O20" s="17">
         <v>773</v>
       </c>
-      <c r="M20" s="13">
+      <c r="P20" s="13">
         <v>829</v>
       </c>
-      <c r="N20" s="17">
+      <c r="Q20" s="17">
         <v>905.8</v>
       </c>
-      <c r="O20" s="13">
+      <c r="R20" s="13">
         <v>171.44</v>
       </c>
-      <c r="P20" s="13">
+      <c r="S20" s="13">
         <v>2276</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="T20" s="13">
         <v>2206.9</v>
       </c>
-      <c r="R20" s="18">
-        <f>+Q20/Q19*R19</f>
+      <c r="U20" s="18">
+        <f t="shared" ref="U20:Z20" si="0">+T20/T19*U19</f>
         <v>1488.2575091381045</v>
       </c>
-      <c r="S20" s="18">
-        <f>+R20/R19*S19</f>
+      <c r="V20" s="18">
+        <f t="shared" si="0"/>
         <v>1416.5920061450443</v>
       </c>
-      <c r="T20" s="18">
-        <f>+S20/S19*T19</f>
+      <c r="W20" s="18">
+        <f t="shared" si="0"/>
         <v>1090.7653228796948</v>
       </c>
-      <c r="U20" s="18">
-        <f>+T20/T19*U19</f>
+      <c r="X20" s="18">
+        <f t="shared" si="0"/>
         <v>1019.0998198866346</v>
       </c>
-      <c r="V20" s="18">
-        <f>+U20/U19*V19</f>
+      <c r="Y20" s="18">
+        <f t="shared" si="0"/>
         <v>873.31371510303541</v>
       </c>
-      <c r="W20" s="18">
-        <f>+V20/V19*W19</f>
+      <c r="Z20" s="18">
+        <f t="shared" si="0"/>
         <v>801.64821210997513</v>
       </c>
-      <c r="X20" s="13">
+      <c r="AA20" s="13">
         <v>2273</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="AB20" s="13">
         <v>2317.3000000000002</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="AC20" s="13">
         <v>1677</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AD20" s="13">
         <v>1721.3</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AE20" s="13">
         <v>1838</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AF20" s="13">
         <v>1882.3</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AG20" s="13">
         <v>1066</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AH20" s="13">
         <v>763</v>
       </c>
-      <c r="AF20" s="13"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI20" s="13"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -18558,93 +18756,102 @@
       <c r="C21" s="11">
         <v>1600</v>
       </c>
-      <c r="D21" s="13">
-        <v>750.13</v>
-      </c>
-      <c r="E21" s="13">
-        <v>750.13</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
+      <c r="D21" s="21">
+        <v>375.4</v>
+      </c>
+      <c r="E21" s="21">
+        <v>206.39999999999998</v>
+      </c>
+      <c r="F21" s="21">
+        <v>243</v>
       </c>
       <c r="G21" s="13">
         <v>750.13</v>
       </c>
       <c r="H21" s="13">
+        <v>750.13</v>
+      </c>
+      <c r="I21" s="17">
         <v>0</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J21" s="13">
         <v>750.13</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>750.13</v>
+      </c>
+      <c r="M21" s="13">
         <v>375.4</v>
       </c>
-      <c r="K21" s="13">
+      <c r="N21" s="13">
         <v>922</v>
       </c>
-      <c r="L21" s="17">
+      <c r="O21" s="17">
         <v>887</v>
       </c>
-      <c r="M21" s="13">
+      <c r="P21" s="13">
         <v>1002.4</v>
       </c>
-      <c r="N21" s="17">
+      <c r="Q21" s="17">
         <v>1013.9</v>
       </c>
-      <c r="O21" s="13">
+      <c r="R21" s="13">
         <v>200.8</v>
       </c>
-      <c r="P21" s="13">
+      <c r="S21" s="13">
         <v>2626</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="T21" s="13">
         <v>2525.6999999999998</v>
       </c>
-      <c r="R21" s="13">
+      <c r="U21" s="13">
         <v>1740</v>
       </c>
-      <c r="S21" s="13">
+      <c r="V21" s="13">
         <v>1639.7</v>
       </c>
-      <c r="T21" s="13">
+      <c r="W21" s="13">
         <v>1259</v>
       </c>
-      <c r="U21" s="13">
+      <c r="X21" s="13">
         <v>1158.7</v>
       </c>
-      <c r="V21" s="13">
+      <c r="Y21" s="13">
         <v>1007</v>
       </c>
-      <c r="W21" s="13">
+      <c r="Z21" s="13">
         <v>906.7</v>
       </c>
-      <c r="X21" s="13">
+      <c r="AA21" s="13">
         <v>2663</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="AB21" s="13">
         <v>2731.7</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="AC21" s="13">
         <v>1915</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AD21" s="13">
         <v>1983.7</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AE21" s="13">
         <v>2119.1999999999998</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AF21" s="13">
         <v>2187.9</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AG21" s="13">
         <v>1239</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AH21" s="13">
         <v>906</v>
       </c>
-      <c r="AF21" s="13"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AI21" s="13"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -18654,30 +18861,27 @@
       <c r="C22" s="11">
         <v>1800</v>
       </c>
-      <c r="D22" s="13">
-        <v>927.38</v>
-      </c>
-      <c r="E22" s="13">
-        <v>927.38</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
       <c r="G22" s="13">
         <v>927.38</v>
       </c>
       <c r="H22" s="13">
+        <v>927.38</v>
+      </c>
+      <c r="I22" s="17">
         <v>0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="13">
         <v>927.38</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>927.38</v>
+      </c>
+      <c r="M22" s="13">
         <v>422.37</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -18697,8 +18901,11 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -18708,30 +18915,27 @@
       <c r="C23" s="11">
         <v>2000</v>
       </c>
-      <c r="D23" s="13">
-        <v>1123.8800000000001</v>
-      </c>
-      <c r="E23" s="13">
-        <v>1123.8800000000001</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
       <c r="G23" s="13">
         <v>1123.8800000000001</v>
       </c>
       <c r="H23" s="13">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="I23" s="17">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="13">
         <v>1123.8800000000001</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="M23" s="13">
         <v>469.3</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -18751,8 +18955,11 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -18762,31 +18969,28 @@
       <c r="C24" s="11">
         <v>2200</v>
       </c>
-      <c r="D24" s="13">
-        <v>1574.75</v>
-      </c>
-      <c r="E24" s="13">
-        <v>1574.75</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
       <c r="G24" s="13">
         <v>1574.75</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="13">
+        <v>1574.75</v>
+      </c>
+      <c r="I24" s="17">
         <v>0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="J24" s="13">
         <v>1574.75</v>
       </c>
-      <c r="J24" s="19">
-        <f>+B24/B23*J23</f>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1574.75</v>
+      </c>
+      <c r="M24" s="19">
+        <f>+B24/B23*M23</f>
         <v>516.23</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -18806,8 +19010,11 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -18817,31 +19024,28 @@
       <c r="C25" s="10">
         <v>2600</v>
       </c>
-      <c r="D25" s="13">
-        <v>1830.13</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1830.13</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
       <c r="G25" s="13">
         <v>1830.13</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="13">
+        <v>1830.13</v>
+      </c>
+      <c r="I25" s="17">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J25" s="13">
         <v>1830.13</v>
       </c>
-      <c r="J25" s="19">
-        <f>+B25/B23*J23</f>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>1830.13</v>
+      </c>
+      <c r="M25" s="19">
+        <f>+B25/B23*M23</f>
         <v>610.09</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -18861,6 +19065,9 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
